--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_25_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_25_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>568863.544892561</v>
+        <v>650484.7432788542</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14753135.73644865</v>
+        <v>14774421.61154189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5825114.584093607</v>
+        <v>5819103.813027846</v>
       </c>
     </row>
     <row r="11">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1.848256208035284</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.848256208035304</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>49.79500702712463</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>16.44799022605971</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.65933999663645</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.57007701068536</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="T5" t="n">
-        <v>6.921385950283685</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>52.00521202033443</v>
+        <v>64.70744504970948</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>45.80619074751054</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>52.00521202033443</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
     </row>
     <row r="7">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>112.1126601249236</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>112.1126601249236</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>64.54245901085116</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>112.1126601249236</v>
-      </c>
-      <c r="G8" t="n">
-        <v>112.1126601249236</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>112.1126601249236</v>
       </c>
       <c r="E9" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>89.49227226221126</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>59.40945122353455</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.08282103867673</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,11 +1262,11 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>112.1126601249236</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
     </row>
     <row r="10">
@@ -1290,67 +1290,67 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>3.625377488803558</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.7927740841431</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>264.7927740841431</v>
       </c>
       <c r="E11" t="n">
-        <v>244.6344056044579</v>
+        <v>264.7927740841431</v>
       </c>
       <c r="F11" t="n">
-        <v>277.7411507770867</v>
+        <v>233.2294754133132</v>
       </c>
       <c r="G11" t="n">
-        <v>277.7411507770867</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>277.7411507770867</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>52.89005341289487</v>
       </c>
       <c r="E12" t="n">
-        <v>133.4956520404713</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.9967467772216</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.22847761391856</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>53.15331188590529</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>146.6675018728581</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6651421410786</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>122.7260842780536</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>277.7411507770867</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>277.7411507770867</v>
+        <v>264.792774084143</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>213.760887396587</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.47038454883381</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1442844361238</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>20.95610382084628</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>264.792774084143</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.792774084143</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>34.92084239977618</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8527787661071</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>49.18455146474926</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6651421410788</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>122.7260842780538</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>264.792774084143</v>
       </c>
       <c r="D17" t="n">
-        <v>277.7411507770868</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>244.6344056044578</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>277.7411507770868</v>
+        <v>264.792774084143</v>
       </c>
       <c r="W17" t="n">
-        <v>277.7411507770868</v>
+        <v>20.95610382084628</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>264.792774084143</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1931,22 +1931,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>8.88932771417408</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>99.46002694872712</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>53.97877159446445</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.862484161744234</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>146.6675018728581</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>195.7705264700813</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>122.7260842780536</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>136.6651421410788</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>277.7411507770868</v>
+        <v>264.7927740841429</v>
       </c>
       <c r="D20" t="n">
-        <v>277.7411507770868</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>92.97288663263149</v>
+        <v>264.7927740841429</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.6615189718265</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>233.2294754133131</v>
       </c>
       <c r="W20" t="n">
-        <v>277.7411507770868</v>
+        <v>264.7927740841429</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>22.52964961653683</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9967467772216</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>53.15331188590528</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>146.6675018728581</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.7362989372607</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>123.1496302281818</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>122.7260842780536</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.6651421410788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>191.3784863087078</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>117.9997930872931</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2408,16 +2408,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>11.1103322343293</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>106.058802019892</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
         <v>225.8205739680685</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.84443721705009</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>39.19398801432213</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>168.7259440155899</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>376.5322263620756</v>
       </c>
     </row>
     <row r="27">
@@ -2642,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>115.9288536912316</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>82.87849588213271</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
         <v>225.8205739680685</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>31.68046530976951</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>178.1144279563387</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>173.0789693567572</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
-        <v>52.95612101910626</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2876,16 +2876,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>73.31651733578406</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>77.17733894039259</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
         <v>225.8205739680685</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>250.7831302631797</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>185.6279506608913</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>245.1588763918214</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0710926941158</v>
+        <v>150.6976310633485</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>148.612538836848</v>
+        <v>141.1787398650466</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3122,10 +3122,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>31.6688608772142</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>31.68046530976951</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>105.3620822402484</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>194.5459061479747</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U35" t="n">
-        <v>134.1907930857639</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>31.62805532013871</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3353,13 +3353,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>94.50081326185511</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.6688608772142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>50.33242395818579</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>71.47349431240912</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.4102286102847</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>176.6433873165821</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
-        <v>175.8399157253632</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.0710926941158</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>95.00345338781338</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3602,7 +3602,7 @@
         <v>94.50081326185511</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>73.86241972786814</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>28.56170197145552</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4526267879227</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.5869635239685</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>320.0207871881623</v>
       </c>
       <c r="H41" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>78.16360657708285</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>109.1085305430292</v>
       </c>
       <c r="G42" t="n">
-        <v>37.14362371276779</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H42" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.8205739680685</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.930353891040108</v>
       </c>
       <c r="G43" t="n">
-        <v>49.25360284882928</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5437307314438</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>117.3906022218286</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>42.41482655307502</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>31.16505155677735</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.4643900708338</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>53.59543950356382</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.850526024831893</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="C2" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="D2" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="E2" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="F2" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="G2" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="H2" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="I2" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="J2" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="K2" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="L2" t="n">
-        <v>19.82590800208273</v>
+        <v>62.2614493974929</v>
       </c>
       <c r="M2" t="n">
-        <v>69.12296495893611</v>
+        <v>111.5585063543463</v>
       </c>
       <c r="N2" t="n">
-        <v>118.4200219157895</v>
+        <v>160.8555633111997</v>
       </c>
       <c r="O2" t="n">
-        <v>156.7444867130883</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="P2" t="n">
-        <v>156.7444867130883</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="Q2" t="n">
-        <v>156.7444867130883</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="R2" t="n">
-        <v>156.7444867130883</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S2" t="n">
-        <v>156.7444867130883</v>
+        <v>148.882041212413</v>
       </c>
       <c r="T2" t="n">
-        <v>156.7444867130883</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="U2" t="n">
-        <v>156.7444867130883</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="V2" t="n">
-        <v>156.7444867130883</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="W2" t="n">
-        <v>156.7444867130883</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4464998170029</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="Y2" t="n">
-        <v>56.14851292091738</v>
+        <v>48.28606742024204</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.98360056216997</v>
+        <v>151.23507643877</v>
       </c>
       <c r="C3" t="n">
-        <v>3.98360056216997</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="D3" t="n">
-        <v>3.98360056216997</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="E3" t="n">
-        <v>3.98360056216997</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="F3" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="G3" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="H3" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="I3" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="J3" t="n">
         <v>3.98360056216997</v>
@@ -4430,31 +4430,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="R3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="S3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="T3" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="U3" t="n">
-        <v>148.882041212413</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="V3" t="n">
-        <v>98.58405431632752</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="W3" t="n">
-        <v>54.28158745825545</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="X3" t="n">
-        <v>54.28158745825545</v>
+        <v>151.23507643877</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.98360056216997</v>
+        <v>151.23507643877</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.69093415388375</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="C5" t="n">
-        <v>56.69093415388375</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="D5" t="n">
-        <v>56.69093415388375</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="E5" t="n">
-        <v>4.160416961626754</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="F5" t="n">
-        <v>4.160416961626754</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="G5" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H5" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I5" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J5" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K5" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L5" t="n">
-        <v>21.96921792112715</v>
+        <v>42.77891399687743</v>
       </c>
       <c r="M5" t="n">
-        <v>73.45437782125822</v>
+        <v>115.5086717162376</v>
       </c>
       <c r="N5" t="n">
-        <v>124.9395377213893</v>
+        <v>188.2384294355977</v>
       </c>
       <c r="O5" t="n">
-        <v>165.3635987672722</v>
+        <v>249.0477644106464</v>
       </c>
       <c r="P5" t="n">
-        <v>165.3635987672722</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.2127502858212</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="R5" t="n">
-        <v>116.2127502858212</v>
+        <v>228.4965513411425</v>
       </c>
       <c r="S5" t="n">
-        <v>116.2127502858212</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="T5" t="n">
-        <v>109.2214513461408</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="U5" t="n">
-        <v>56.69093415388375</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="V5" t="n">
-        <v>56.69093415388375</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="W5" t="n">
-        <v>56.69093415388375</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="X5" t="n">
-        <v>56.69093415388375</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="Y5" t="n">
-        <v>56.69093415388375</v>
+        <v>154.2900849404077</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.2214513461408</v>
+        <v>71.23820774470533</v>
       </c>
       <c r="C6" t="n">
-        <v>109.2214513461408</v>
+        <v>71.23820774470533</v>
       </c>
       <c r="D6" t="n">
-        <v>56.69093415388375</v>
+        <v>71.23820774470533</v>
       </c>
       <c r="E6" t="n">
-        <v>56.69093415388375</v>
+        <v>71.23820774470533</v>
       </c>
       <c r="F6" t="n">
-        <v>56.69093415388375</v>
+        <v>71.23820774470533</v>
       </c>
       <c r="G6" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H6" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I6" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J6" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K6" t="n">
-        <v>5.237056938131228</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L6" t="n">
-        <v>53.00727340732121</v>
+        <v>67.70305091229125</v>
       </c>
       <c r="M6" t="n">
-        <v>104.4924333074523</v>
+        <v>140.4328086316514</v>
       </c>
       <c r="N6" t="n">
-        <v>155.9775932075834</v>
+        <v>213.1625663510115</v>
       </c>
       <c r="O6" t="n">
-        <v>178.0077694636781</v>
+        <v>251.4830235083501</v>
       </c>
       <c r="P6" t="n">
-        <v>208.0208480813377</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.0208480813377</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="R6" t="n">
-        <v>208.0208480813377</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="S6" t="n">
-        <v>161.7519685383978</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="T6" t="n">
-        <v>109.2214513461408</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="U6" t="n">
-        <v>109.2214513461408</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="V6" t="n">
-        <v>109.2214513461408</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="W6" t="n">
-        <v>109.2214513461408</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="X6" t="n">
-        <v>109.2214513461408</v>
+        <v>145.4446741454401</v>
       </c>
       <c r="Y6" t="n">
-        <v>109.2214513461408</v>
+        <v>71.23820774470533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="C7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="D7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="E7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="F7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="G7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="M7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="N7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="O7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="P7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="R7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="S7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="T7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="U7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="V7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="W7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="X7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.160416961626754</v>
+        <v>5.877152138938193</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.2417925668747</v>
+        <v>206.1910843708418</v>
       </c>
       <c r="C8" t="n">
-        <v>254.2417925668747</v>
+        <v>206.1910843708418</v>
       </c>
       <c r="D8" t="n">
-        <v>254.2417925668747</v>
+        <v>206.1910843708418</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2417925668747</v>
+        <v>92.94597313354524</v>
       </c>
       <c r="F8" t="n">
-        <v>140.9966813295781</v>
+        <v>92.94597313354524</v>
       </c>
       <c r="G8" t="n">
         <v>27.75157009228144</v>
@@ -4807,10 +4807,10 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687542</v>
+        <v>32.11753523687543</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773402</v>
+        <v>97.73708609773405</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>325.8554698928813</v>
+        <v>212.6103586555847</v>
       </c>
       <c r="C9" t="n">
-        <v>325.8554698928813</v>
+        <v>212.6103586555847</v>
       </c>
       <c r="D9" t="n">
-        <v>212.6103586555847</v>
+        <v>99.36524741828811</v>
       </c>
       <c r="E9" t="n">
         <v>99.36524741828811</v>
       </c>
       <c r="F9" t="n">
-        <v>8.969012809993892</v>
+        <v>99.36524741828811</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993892</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993892</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993892</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="J9" t="n">
         <v>8.969012809993892</v>
@@ -4892,13 +4892,13 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4394396403951</v>
+        <v>230.1803012028976</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>341.171834726572</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953194</v>
+        <v>441.223936157822</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996945</v>
@@ -4910,7 +4910,7 @@
         <v>439.1005811301779</v>
       </c>
       <c r="S9" t="n">
-        <v>325.8554698928813</v>
+        <v>439.1005811301779</v>
       </c>
       <c r="T9" t="n">
         <v>325.8554698928813</v>
@@ -4928,7 +4928,7 @@
         <v>325.8554698928813</v>
       </c>
       <c r="Y9" t="n">
-        <v>325.8554698928813</v>
+        <v>212.6103586555847</v>
       </c>
     </row>
     <row r="10">
@@ -4998,16 +4998,16 @@
         <v>12.63101027343183</v>
       </c>
       <c r="V10" t="n">
-        <v>12.63101027343183</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="W10" t="n">
-        <v>12.63101027343183</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="X10" t="n">
-        <v>12.63101027343183</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.63101027343183</v>
+        <v>8.969012809993892</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>830.4179861617945</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="C11" t="n">
-        <v>830.4179861617945</v>
+        <v>791.7036477667309</v>
       </c>
       <c r="D11" t="n">
-        <v>830.4179861617945</v>
+        <v>524.2361991968894</v>
       </c>
       <c r="E11" t="n">
-        <v>583.3125259552713</v>
+        <v>256.7687506270478</v>
       </c>
       <c r="F11" t="n">
-        <v>302.7659090087191</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="G11" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="H11" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="I11" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="J11" t="n">
-        <v>54.48370099033264</v>
+        <v>49.6827215852511</v>
       </c>
       <c r="K11" t="n">
-        <v>153.5782045344281</v>
+        <v>143.1343023380384</v>
       </c>
       <c r="L11" t="n">
-        <v>313.4154605742195</v>
+        <v>295.9710136738466</v>
       </c>
       <c r="M11" t="n">
-        <v>522.934642704708</v>
+        <v>497.7007409605962</v>
       </c>
       <c r="N11" t="n">
-        <v>740.4578726264619</v>
+        <v>707.3084745156152</v>
       </c>
       <c r="O11" t="n">
-        <v>932.5236291615288</v>
+        <v>891.899852288625</v>
       </c>
       <c r="P11" t="n">
-        <v>1061.946307906929</v>
+        <v>1014.943321686474</v>
       </c>
       <c r="Q11" t="n">
-        <v>1110.964603108347</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="R11" t="n">
-        <v>1110.964603108347</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="S11" t="n">
-        <v>1110.964603108347</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="T11" t="n">
-        <v>1110.964603108347</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="U11" t="n">
-        <v>1110.964603108347</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="V11" t="n">
-        <v>830.4179861617945</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="W11" t="n">
-        <v>830.4179861617945</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="X11" t="n">
-        <v>830.4179861617945</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="Y11" t="n">
-        <v>830.4179861617945</v>
+        <v>1059.171096336572</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>594.8893937903495</v>
+        <v>408.2982025899755</v>
       </c>
       <c r="C12" t="n">
-        <v>594.8893937903495</v>
+        <v>233.8451733088484</v>
       </c>
       <c r="D12" t="n">
-        <v>594.8893937903495</v>
+        <v>180.420876932187</v>
       </c>
       <c r="E12" t="n">
-        <v>460.0453008201764</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="F12" t="n">
-        <v>313.5107428470614</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="G12" t="n">
-        <v>176.1402915569385</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="H12" t="n">
-        <v>75.9095060883339</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="I12" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="J12" t="n">
-        <v>22.61790602946079</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="K12" t="n">
-        <v>101.4540255147892</v>
+        <v>96.1867973879678</v>
       </c>
       <c r="L12" t="n">
-        <v>253.7814582993858</v>
+        <v>243.3606328421824</v>
       </c>
       <c r="M12" t="n">
-        <v>450.8972557104397</v>
+        <v>434.4624252481626</v>
       </c>
       <c r="N12" t="n">
-        <v>667.6387666583505</v>
+        <v>645.0307583737459</v>
       </c>
       <c r="O12" t="n">
-        <v>843.6951100857955</v>
+        <v>815.4398501219416</v>
       </c>
       <c r="P12" t="n">
-        <v>965.6627808444545</v>
+        <v>932.8751035375005</v>
       </c>
       <c r="Q12" t="n">
-        <v>997.2757423093169</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="R12" t="n">
-        <v>997.2757423093169</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="S12" t="n">
-        <v>849.1267505185511</v>
+        <v>812.8594463629281</v>
       </c>
       <c r="T12" t="n">
-        <v>849.1267505185511</v>
+        <v>616.0585013549294</v>
       </c>
       <c r="U12" t="n">
-        <v>849.1267505185511</v>
+        <v>616.0585013549294</v>
       </c>
       <c r="V12" t="n">
-        <v>849.1267505185511</v>
+        <v>616.0585013549294</v>
       </c>
       <c r="W12" t="n">
-        <v>594.8893937903495</v>
+        <v>616.0585013549294</v>
       </c>
       <c r="X12" t="n">
-        <v>594.8893937903495</v>
+        <v>616.0585013549294</v>
       </c>
       <c r="Y12" t="n">
-        <v>594.8893937903495</v>
+        <v>408.2982025899755</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>160.2648901844686</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="C13" t="n">
-        <v>160.2648901844686</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="D13" t="n">
-        <v>160.2648901844686</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="E13" t="n">
-        <v>160.2648901844686</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="F13" t="n">
-        <v>160.2648901844686</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="G13" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="H13" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="I13" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="J13" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="K13" t="n">
-        <v>24.3637590406832</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="L13" t="n">
-        <v>57.01373616125431</v>
+        <v>50.87496806962249</v>
       </c>
       <c r="M13" t="n">
-        <v>94.69684218448307</v>
+        <v>85.43882342951889</v>
       </c>
       <c r="N13" t="n">
-        <v>139.3414540783108</v>
+        <v>127.0383534689203</v>
       </c>
       <c r="O13" t="n">
-        <v>160.2648901844686</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="P13" t="n">
-        <v>160.2648901844686</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.2648901844686</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="R13" t="n">
-        <v>160.2648901844686</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="S13" t="n">
-        <v>160.2648901844686</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="T13" t="n">
-        <v>160.2648901844686</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="U13" t="n">
-        <v>160.2648901844686</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="V13" t="n">
-        <v>160.2648901844686</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="W13" t="n">
-        <v>160.2648901844686</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="X13" t="n">
-        <v>160.2648901844686</v>
+        <v>21.18342192673145</v>
       </c>
       <c r="Y13" t="n">
-        <v>160.2648901844686</v>
+        <v>21.18342192673145</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>518.6859972881</v>
+        <v>288.6508704965729</v>
       </c>
       <c r="C14" t="n">
-        <v>518.6859972881</v>
+        <v>288.6508704965729</v>
       </c>
       <c r="D14" t="n">
-        <v>518.6859972881</v>
+        <v>288.6508704965729</v>
       </c>
       <c r="E14" t="n">
-        <v>238.1393803415478</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="F14" t="n">
-        <v>238.1393803415478</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="G14" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="H14" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="I14" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="J14" t="n">
-        <v>54.48370099033264</v>
+        <v>49.68272158525099</v>
       </c>
       <c r="K14" t="n">
-        <v>153.5782045344279</v>
+        <v>143.1343023380381</v>
       </c>
       <c r="L14" t="n">
-        <v>313.4154605742194</v>
+        <v>295.9710136738461</v>
       </c>
       <c r="M14" t="n">
-        <v>522.9346427047079</v>
+        <v>497.7007409605958</v>
       </c>
       <c r="N14" t="n">
-        <v>740.4578726264618</v>
+        <v>707.3084745156148</v>
       </c>
       <c r="O14" t="n">
-        <v>932.5236291615286</v>
+        <v>891.8998522886247</v>
       </c>
       <c r="P14" t="n">
-        <v>1061.946307906929</v>
+        <v>1014.943321686473</v>
       </c>
       <c r="Q14" t="n">
-        <v>1110.964603108347</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="R14" t="n">
-        <v>1052.913709624676</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="S14" t="n">
-        <v>1052.913709624676</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="T14" t="n">
-        <v>1052.913709624676</v>
+        <v>844.7535492734744</v>
       </c>
       <c r="U14" t="n">
-        <v>799.2326142346521</v>
+        <v>844.7535492734744</v>
       </c>
       <c r="V14" t="n">
-        <v>799.2326142346521</v>
+        <v>823.5857676362559</v>
       </c>
       <c r="W14" t="n">
-        <v>799.2326142346521</v>
+        <v>556.1183190664144</v>
       </c>
       <c r="X14" t="n">
-        <v>799.2326142346521</v>
+        <v>288.6508704965729</v>
       </c>
       <c r="Y14" t="n">
-        <v>799.2326142346521</v>
+        <v>288.6508704965729</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.21929206216693</v>
+        <v>56.45700010832354</v>
       </c>
       <c r="C15" t="n">
-        <v>22.21929206216693</v>
+        <v>56.45700010832354</v>
       </c>
       <c r="D15" t="n">
-        <v>22.21929206216693</v>
+        <v>56.45700010832354</v>
       </c>
       <c r="E15" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="F15" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="G15" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="H15" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="I15" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="J15" t="n">
-        <v>22.61790602946082</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="K15" t="n">
-        <v>101.4540255147892</v>
+        <v>96.18679738796781</v>
       </c>
       <c r="L15" t="n">
-        <v>253.7814582993859</v>
+        <v>243.3606328421825</v>
       </c>
       <c r="M15" t="n">
-        <v>450.8972557104398</v>
+        <v>434.4624252481627</v>
       </c>
       <c r="N15" t="n">
-        <v>667.6387666583507</v>
+        <v>645.0307583737462</v>
       </c>
       <c r="O15" t="n">
-        <v>843.6951100857957</v>
+        <v>815.4398501219418</v>
       </c>
       <c r="P15" t="n">
-        <v>965.6627808444548</v>
+        <v>932.8751035375008</v>
       </c>
       <c r="Q15" t="n">
-        <v>997.2757423093173</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="R15" t="n">
-        <v>997.2757423093173</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="S15" t="n">
-        <v>997.2757423093173</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="T15" t="n">
-        <v>997.2757423093173</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="U15" t="n">
-        <v>769.1416223435524</v>
+        <v>961.4582640387547</v>
       </c>
       <c r="V15" t="n">
-        <v>533.9895141118097</v>
+        <v>726.3061558070119</v>
       </c>
       <c r="W15" t="n">
-        <v>279.7521573836081</v>
+        <v>472.0687990788103</v>
       </c>
       <c r="X15" t="n">
-        <v>71.90065717807528</v>
+        <v>264.2172988732775</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.21929206216693</v>
+        <v>56.45700010832354</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="C16" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="D16" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="E16" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="F16" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="G16" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="H16" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="I16" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="J16" t="n">
-        <v>22.21929206216693</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="K16" t="n">
-        <v>24.36375904068322</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="L16" t="n">
-        <v>57.01373616125437</v>
+        <v>50.87496806962254</v>
       </c>
       <c r="M16" t="n">
-        <v>94.69684218448319</v>
+        <v>85.43882342951898</v>
       </c>
       <c r="N16" t="n">
-        <v>139.341454078311</v>
+        <v>127.0383534689204</v>
       </c>
       <c r="O16" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="P16" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="Q16" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="R16" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="S16" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217353</v>
       </c>
       <c r="T16" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="U16" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="V16" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="W16" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="X16" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="Y16" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673144</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>549.8713692152423</v>
+        <v>288.6508704965729</v>
       </c>
       <c r="C17" t="n">
-        <v>549.8713692152423</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="D17" t="n">
-        <v>269.32475226869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="E17" t="n">
-        <v>269.32475226869</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="F17" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="G17" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="H17" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="I17" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="J17" t="n">
-        <v>54.48370099033264</v>
+        <v>49.68272158525087</v>
       </c>
       <c r="K17" t="n">
-        <v>153.5782045344281</v>
+        <v>143.1343023380382</v>
       </c>
       <c r="L17" t="n">
-        <v>313.4154605742198</v>
+        <v>295.9710136738464</v>
       </c>
       <c r="M17" t="n">
-        <v>522.9346427047085</v>
+        <v>497.700740960596</v>
       </c>
       <c r="N17" t="n">
-        <v>740.4578726264624</v>
+        <v>707.308474515615</v>
       </c>
       <c r="O17" t="n">
-        <v>932.5236291615292</v>
+        <v>891.8998522886247</v>
       </c>
       <c r="P17" t="n">
-        <v>1061.946307906929</v>
+        <v>1014.943321686473</v>
       </c>
       <c r="Q17" t="n">
-        <v>1110.964603108347</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="R17" t="n">
-        <v>1110.964603108347</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="S17" t="n">
-        <v>1110.964603108347</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="T17" t="n">
-        <v>1110.964603108347</v>
+        <v>844.7535492734744</v>
       </c>
       <c r="U17" t="n">
-        <v>1110.964603108347</v>
+        <v>844.7535492734744</v>
       </c>
       <c r="V17" t="n">
-        <v>830.4179861617947</v>
+        <v>577.2861007036329</v>
       </c>
       <c r="W17" t="n">
-        <v>549.8713692152423</v>
+        <v>556.1183190664144</v>
       </c>
       <c r="X17" t="n">
-        <v>549.8713692152423</v>
+        <v>288.6508704965729</v>
       </c>
       <c r="Y17" t="n">
-        <v>549.8713692152423</v>
+        <v>288.6508704965729</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3787439831158</v>
+        <v>510.4199623025541</v>
       </c>
       <c r="C18" t="n">
-        <v>476.9257147019887</v>
+        <v>335.9669330214271</v>
       </c>
       <c r="D18" t="n">
-        <v>327.9913050407375</v>
+        <v>187.0325233601758</v>
       </c>
       <c r="E18" t="n">
-        <v>168.753850035282</v>
+        <v>187.0325233601758</v>
       </c>
       <c r="F18" t="n">
-        <v>22.21929206216694</v>
+        <v>178.0534044569696</v>
       </c>
       <c r="G18" t="n">
-        <v>22.21929206216694</v>
+        <v>178.0534044569696</v>
       </c>
       <c r="H18" t="n">
-        <v>22.21929206216694</v>
+        <v>77.58873077138668</v>
       </c>
       <c r="I18" t="n">
-        <v>22.21929206216694</v>
+        <v>23.06471905980643</v>
       </c>
       <c r="J18" t="n">
-        <v>22.61790602946083</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="K18" t="n">
-        <v>101.4540255147892</v>
+        <v>96.18679738796779</v>
       </c>
       <c r="L18" t="n">
-        <v>253.7814582993859</v>
+        <v>243.3606328421824</v>
       </c>
       <c r="M18" t="n">
-        <v>450.8972557104398</v>
+        <v>434.4624252481626</v>
       </c>
       <c r="N18" t="n">
-        <v>667.6387666583507</v>
+        <v>645.0307583737459</v>
       </c>
       <c r="O18" t="n">
-        <v>843.6951100857957</v>
+        <v>815.4398501219416</v>
       </c>
       <c r="P18" t="n">
-        <v>965.6627808444548</v>
+        <v>932.8751035375005</v>
       </c>
       <c r="Q18" t="n">
-        <v>997.2757423093173</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="R18" t="n">
-        <v>997.2757423093173</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="S18" t="n">
-        <v>849.1267505185515</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="T18" t="n">
-        <v>849.1267505185515</v>
+        <v>764.6573190307557</v>
       </c>
       <c r="U18" t="n">
-        <v>849.1267505185515</v>
+        <v>764.6573190307557</v>
       </c>
       <c r="V18" t="n">
-        <v>651.3787439831158</v>
+        <v>764.6573190307557</v>
       </c>
       <c r="W18" t="n">
-        <v>651.3787439831158</v>
+        <v>510.4199623025541</v>
       </c>
       <c r="X18" t="n">
-        <v>651.3787439831158</v>
+        <v>510.4199623025541</v>
       </c>
       <c r="Y18" t="n">
-        <v>651.3787439831158</v>
+        <v>510.4199623025541</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.21929206216694</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="C19" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="D19" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="E19" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="F19" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="G19" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="H19" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="I19" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="J19" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="K19" t="n">
-        <v>24.36375904068323</v>
+        <v>21.18342192673144</v>
       </c>
       <c r="L19" t="n">
-        <v>57.01373616125439</v>
+        <v>50.87496806962248</v>
       </c>
       <c r="M19" t="n">
-        <v>94.69684218448319</v>
+        <v>85.43882342951889</v>
       </c>
       <c r="N19" t="n">
-        <v>139.341454078311</v>
+        <v>127.0383534689203</v>
       </c>
       <c r="O19" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="P19" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="R19" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="S19" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="T19" t="n">
-        <v>22.21929206216694</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="U19" t="n">
-        <v>22.21929206216694</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="V19" t="n">
-        <v>22.21929206216694</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="W19" t="n">
-        <v>22.21929206216694</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="X19" t="n">
-        <v>22.21929206216694</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.21929206216694</v>
+        <v>145.1491636217351</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>677.2245326548993</v>
+        <v>556.118319066414</v>
       </c>
       <c r="C20" t="n">
-        <v>396.677915708347</v>
+        <v>288.6508704965727</v>
       </c>
       <c r="D20" t="n">
-        <v>116.1312987617947</v>
+        <v>288.6508704965727</v>
       </c>
       <c r="E20" t="n">
-        <v>116.1312987617947</v>
+        <v>288.6508704965727</v>
       </c>
       <c r="F20" t="n">
-        <v>116.1312987617947</v>
+        <v>288.6508704965727</v>
       </c>
       <c r="G20" t="n">
-        <v>116.1312987617947</v>
+        <v>288.6508704965727</v>
       </c>
       <c r="H20" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="I20" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="J20" t="n">
-        <v>54.48370099033264</v>
+        <v>49.6827215852507</v>
       </c>
       <c r="K20" t="n">
-        <v>153.5782045344281</v>
+        <v>143.1343023380379</v>
       </c>
       <c r="L20" t="n">
-        <v>313.4154605742197</v>
+        <v>295.9710136738458</v>
       </c>
       <c r="M20" t="n">
-        <v>522.9346427047085</v>
+        <v>497.7007409605955</v>
       </c>
       <c r="N20" t="n">
-        <v>740.4578726264624</v>
+        <v>707.3084745156142</v>
       </c>
       <c r="O20" t="n">
-        <v>932.523629161529</v>
+        <v>891.8998522886241</v>
       </c>
       <c r="P20" t="n">
-        <v>1061.946307906929</v>
+        <v>1014.943321686473</v>
       </c>
       <c r="Q20" t="n">
-        <v>1110.964603108347</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="R20" t="n">
-        <v>1110.964603108347</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="S20" t="n">
-        <v>957.7711496014516</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="T20" t="n">
-        <v>957.7711496014516</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="U20" t="n">
-        <v>957.7711496014516</v>
+        <v>1059.171096336572</v>
       </c>
       <c r="V20" t="n">
-        <v>957.7711496014516</v>
+        <v>823.5857676362552</v>
       </c>
       <c r="W20" t="n">
-        <v>677.2245326548993</v>
+        <v>556.118319066414</v>
       </c>
       <c r="X20" t="n">
-        <v>677.2245326548993</v>
+        <v>556.118319066414</v>
       </c>
       <c r="Y20" t="n">
-        <v>677.2245326548993</v>
+        <v>556.118319066414</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>359.8145153515718</v>
+        <v>377.6311280481996</v>
       </c>
       <c r="C21" t="n">
-        <v>359.8145153515718</v>
+        <v>203.1780987670726</v>
       </c>
       <c r="D21" t="n">
-        <v>359.8145153515718</v>
+        <v>180.4208769321869</v>
       </c>
       <c r="E21" t="n">
-        <v>359.8145153515718</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="F21" t="n">
-        <v>213.2799573784568</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="G21" t="n">
-        <v>75.9095060883339</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="H21" t="n">
-        <v>75.9095060883339</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="I21" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="J21" t="n">
-        <v>22.61790602946083</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="K21" t="n">
-        <v>101.4540255147892</v>
+        <v>96.18679738796777</v>
       </c>
       <c r="L21" t="n">
-        <v>253.7814582993859</v>
+        <v>243.3606328421824</v>
       </c>
       <c r="M21" t="n">
-        <v>450.8972557104398</v>
+        <v>434.4624252481626</v>
       </c>
       <c r="N21" t="n">
-        <v>667.6387666583507</v>
+        <v>645.0307583737459</v>
       </c>
       <c r="O21" t="n">
-        <v>843.6951100857957</v>
+        <v>815.4398501219416</v>
       </c>
       <c r="P21" t="n">
-        <v>965.6627808444548</v>
+        <v>932.8751035375005</v>
       </c>
       <c r="Q21" t="n">
-        <v>997.2757423093173</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="R21" t="n">
-        <v>997.2757423093173</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="S21" t="n">
-        <v>849.1267505185515</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="T21" t="n">
-        <v>652.4234182586922</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="U21" t="n">
-        <v>652.4234182586922</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="V21" t="n">
-        <v>528.0298523716399</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="W21" t="n">
-        <v>528.0298523716399</v>
+        <v>961.4582640387545</v>
       </c>
       <c r="X21" t="n">
-        <v>528.0298523716399</v>
+        <v>753.6067638332216</v>
       </c>
       <c r="Y21" t="n">
-        <v>528.0298523716399</v>
+        <v>545.8464650682677</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="C22" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="D22" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="E22" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="F22" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="G22" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="H22" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="I22" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="J22" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="K22" t="n">
-        <v>24.36375904068323</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="L22" t="n">
-        <v>57.01373616125439</v>
+        <v>50.87496806962247</v>
       </c>
       <c r="M22" t="n">
-        <v>94.69684218448319</v>
+        <v>85.43882342951886</v>
       </c>
       <c r="N22" t="n">
-        <v>139.341454078311</v>
+        <v>127.0383534689203</v>
       </c>
       <c r="O22" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="P22" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="Q22" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="R22" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="S22" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="T22" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="U22" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="V22" t="n">
-        <v>160.2648901844688</v>
+        <v>145.1491636217351</v>
       </c>
       <c r="W22" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="X22" t="n">
-        <v>160.2648901844688</v>
+        <v>21.18342192673143</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.21929206216694</v>
+        <v>21.18342192673143</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1197.189935159474</v>
+        <v>1391.720654864723</v>
       </c>
       <c r="C23" t="n">
-        <v>828.227418219062</v>
+        <v>1198.409052532695</v>
       </c>
       <c r="D23" t="n">
-        <v>469.9617196123115</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="E23" t="n">
-        <v>350.7700094231265</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="F23" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G23" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H23" t="n">
         <v>43.36919653809314</v>
@@ -6022,19 +6022,19 @@
         <v>2168.459826904657</v>
       </c>
       <c r="U23" t="n">
-        <v>1914.852662567166</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V23" t="n">
-        <v>1583.789775223595</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="W23" t="n">
-        <v>1583.789775223595</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="X23" t="n">
-        <v>1583.789775223595</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="Y23" t="n">
-        <v>1583.789775223595</v>
+        <v>1778.320494928845</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>525.9940904859269</v>
+        <v>646.1741707752528</v>
       </c>
       <c r="C24" t="n">
-        <v>351.5410612047999</v>
+        <v>646.1741707752528</v>
       </c>
       <c r="D24" t="n">
-        <v>202.6066515435487</v>
+        <v>497.2397611140016</v>
       </c>
       <c r="E24" t="n">
-        <v>43.36919653809314</v>
+        <v>338.0023061085461</v>
       </c>
       <c r="F24" t="n">
-        <v>43.36919653809314</v>
+        <v>191.467748135431</v>
       </c>
       <c r="G24" t="n">
-        <v>43.36919653809314</v>
+        <v>54.59175435054698</v>
       </c>
       <c r="H24" t="n">
-        <v>43.36919653809314</v>
+        <v>54.59175435054698</v>
       </c>
       <c r="I24" t="n">
         <v>43.36919653809314</v>
@@ -6098,22 +6098,22 @@
         <v>1766.22704733349</v>
       </c>
       <c r="T24" t="n">
-        <v>1659.096944283094</v>
+        <v>1571.516725807466</v>
       </c>
       <c r="U24" t="n">
-        <v>1430.995354416358</v>
+        <v>1343.41513594073</v>
       </c>
       <c r="V24" t="n">
-        <v>1195.843246184615</v>
+        <v>1108.263027708987</v>
       </c>
       <c r="W24" t="n">
-        <v>941.6058894564137</v>
+        <v>854.0256709807857</v>
       </c>
       <c r="X24" t="n">
-        <v>733.7543892508809</v>
+        <v>646.1741707752528</v>
       </c>
       <c r="Y24" t="n">
-        <v>525.9940904859269</v>
+        <v>646.1741707752528</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.3050670233782</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="C25" t="n">
-        <v>506.3050670233782</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="D25" t="n">
-        <v>506.3050670233782</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="E25" t="n">
-        <v>358.3919734409851</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F25" t="n">
-        <v>211.5020259430748</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G25" t="n">
         <v>43.36919653809314</v>
@@ -6186,13 +6186,13 @@
         <v>520.2893470406005</v>
       </c>
       <c r="W25" t="n">
-        <v>520.2893470406005</v>
+        <v>230.8721770036399</v>
       </c>
       <c r="X25" t="n">
-        <v>520.2893470406005</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="Y25" t="n">
-        <v>520.2893470406005</v>
+        <v>191.2822901204863</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1265.581595338497</v>
+        <v>1203.454193039681</v>
       </c>
       <c r="C26" t="n">
-        <v>896.6190783980858</v>
+        <v>1203.454193039681</v>
       </c>
       <c r="D26" t="n">
-        <v>538.3533797913352</v>
+        <v>845.1884944329302</v>
       </c>
       <c r="E26" t="n">
-        <v>538.3533797913352</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="F26" t="n">
-        <v>538.3533797913352</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G26" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H26" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I26" t="n">
         <v>43.36919653809314</v>
@@ -6253,25 +6253,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S26" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T26" t="n">
-        <v>1826.151173794703</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U26" t="n">
-        <v>1826.151173794703</v>
+        <v>1914.852662567166</v>
       </c>
       <c r="V26" t="n">
-        <v>1826.151173794703</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="W26" t="n">
-        <v>1826.151173794703</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="X26" t="n">
-        <v>1655.720927314309</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="Y26" t="n">
-        <v>1265.581595338497</v>
+        <v>1203.454193039681</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>494.1595330380409</v>
+        <v>438.4138720102989</v>
       </c>
       <c r="C27" t="n">
-        <v>319.7065037569139</v>
+        <v>263.9608427291719</v>
       </c>
       <c r="D27" t="n">
-        <v>319.7065037569139</v>
+        <v>263.9608427291719</v>
       </c>
       <c r="E27" t="n">
-        <v>160.4690487514584</v>
+        <v>263.9608427291719</v>
       </c>
       <c r="F27" t="n">
-        <v>43.36919653809314</v>
+        <v>263.9608427291719</v>
       </c>
       <c r="G27" t="n">
-        <v>43.36919653809314</v>
+        <v>127.0848489442878</v>
       </c>
       <c r="H27" t="n">
         <v>43.36919653809314</v>
@@ -6332,25 +6332,25 @@
         <v>1766.22704733349</v>
       </c>
       <c r="S27" t="n">
-        <v>1627.262386835208</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T27" t="n">
-        <v>1627.262386835208</v>
+        <v>1571.516725807466</v>
       </c>
       <c r="U27" t="n">
-        <v>1399.160796968472</v>
+        <v>1343.41513594073</v>
       </c>
       <c r="V27" t="n">
-        <v>1164.008688736729</v>
+        <v>1108.263027708987</v>
       </c>
       <c r="W27" t="n">
-        <v>909.7713320085277</v>
+        <v>854.0256709807857</v>
       </c>
       <c r="X27" t="n">
-        <v>701.9198318029948</v>
+        <v>646.1741707752528</v>
       </c>
       <c r="Y27" t="n">
-        <v>494.1595330380409</v>
+        <v>438.4138720102989</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>340.3757834483392</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="C28" t="n">
-        <v>340.3757834483392</v>
+        <v>488.2888770307324</v>
       </c>
       <c r="D28" t="n">
-        <v>190.2591440360035</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E28" t="n">
         <v>190.2591440360035</v>
@@ -6417,19 +6417,19 @@
         <v>520.2893470406005</v>
       </c>
       <c r="U28" t="n">
-        <v>340.3757834483392</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="V28" t="n">
-        <v>340.3757834483392</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="W28" t="n">
-        <v>340.3757834483392</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="X28" t="n">
-        <v>340.3757834483392</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="Y28" t="n">
-        <v>340.3757834483392</v>
+        <v>520.2893470406005</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>538.3533797913352</v>
+        <v>1156.385664683499</v>
       </c>
       <c r="C29" t="n">
-        <v>538.3533797913352</v>
+        <v>787.4231477430878</v>
       </c>
       <c r="D29" t="n">
-        <v>538.3533797913352</v>
+        <v>429.1574491363374</v>
       </c>
       <c r="E29" t="n">
-        <v>538.3533797913352</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F29" t="n">
-        <v>538.3533797913352</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G29" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H29" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I29" t="n">
         <v>43.36919653809314</v>
@@ -6499,16 +6499,16 @@
         <v>1704.678664719082</v>
       </c>
       <c r="V29" t="n">
-        <v>1651.187633386651</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="W29" t="n">
-        <v>1298.418978116537</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="X29" t="n">
-        <v>924.9532198554571</v>
+        <v>1331.212906458002</v>
       </c>
       <c r="Y29" t="n">
-        <v>924.9532198554571</v>
+        <v>1331.212906458002</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>809.404642243926</v>
+        <v>438.4138720102989</v>
       </c>
       <c r="C30" t="n">
-        <v>634.951612962799</v>
+        <v>263.9608427291719</v>
       </c>
       <c r="D30" t="n">
-        <v>486.0172033015477</v>
+        <v>263.9608427291719</v>
       </c>
       <c r="E30" t="n">
-        <v>326.7797482960922</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F30" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G30" t="n">
         <v>43.36919653809314</v>
@@ -6572,22 +6572,22 @@
         <v>1766.22704733349</v>
       </c>
       <c r="T30" t="n">
-        <v>1688.270139312891</v>
+        <v>1571.516725807466</v>
       </c>
       <c r="U30" t="n">
-        <v>1460.168549446155</v>
+        <v>1343.41513594073</v>
       </c>
       <c r="V30" t="n">
-        <v>1225.016441214413</v>
+        <v>1108.263027708987</v>
       </c>
       <c r="W30" t="n">
-        <v>1225.016441214413</v>
+        <v>854.0256709807857</v>
       </c>
       <c r="X30" t="n">
-        <v>1017.16494100888</v>
+        <v>646.1741707752528</v>
       </c>
       <c r="Y30" t="n">
-        <v>809.404642243926</v>
+        <v>438.4138720102989</v>
       </c>
     </row>
     <row r="31">
@@ -6651,16 +6651,16 @@
         <v>520.2893470406005</v>
       </c>
       <c r="T31" t="n">
-        <v>520.2893470406005</v>
+        <v>296.6854897332241</v>
       </c>
       <c r="U31" t="n">
-        <v>520.2893470406005</v>
+        <v>296.6854897332241</v>
       </c>
       <c r="V31" t="n">
-        <v>520.2893470406005</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="W31" t="n">
-        <v>230.8721770036399</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="X31" t="n">
         <v>43.36919653809314</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1451.655119961727</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="C32" t="n">
-        <v>1451.655119961727</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="D32" t="n">
-        <v>1093.389421354976</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E32" t="n">
-        <v>845.7541926763686</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="F32" t="n">
-        <v>845.7541926763686</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G32" t="n">
-        <v>429.7231473797758</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H32" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I32" t="n">
         <v>43.36919653809314</v>
@@ -6727,25 +6727,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S32" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T32" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U32" t="n">
-        <v>1782.718007305297</v>
+        <v>2016.239997547739</v>
       </c>
       <c r="V32" t="n">
-        <v>1451.655119961727</v>
+        <v>2016.239997547739</v>
       </c>
       <c r="W32" t="n">
-        <v>1451.655119961727</v>
+        <v>2016.239997547739</v>
       </c>
       <c r="X32" t="n">
-        <v>1451.655119961727</v>
+        <v>1642.774239286659</v>
       </c>
       <c r="Y32" t="n">
-        <v>1451.655119961727</v>
+        <v>1642.774239286659</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>880.5206554867416</v>
+        <v>640.6804069203863</v>
       </c>
       <c r="C33" t="n">
-        <v>730.4069798939659</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D33" t="n">
-        <v>581.4725702327146</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E33" t="n">
-        <v>422.235115227259</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F33" t="n">
-        <v>275.700557254144</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G33" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H33" t="n">
         <v>43.36919653809314</v>
@@ -6803,28 +6803,28 @@
         <v>1766.22704733349</v>
       </c>
       <c r="R33" t="n">
-        <v>1766.22704733349</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S33" t="n">
-        <v>1766.22704733349</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="T33" t="n">
-        <v>1766.22704733349</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="U33" t="n">
-        <v>1538.125457466754</v>
+        <v>1506.136709105931</v>
       </c>
       <c r="V33" t="n">
-        <v>1302.973349235011</v>
+        <v>1270.984600874189</v>
       </c>
       <c r="W33" t="n">
-        <v>1048.73599250681</v>
+        <v>1016.747244145987</v>
       </c>
       <c r="X33" t="n">
-        <v>1048.73599250681</v>
+        <v>808.8957439404544</v>
       </c>
       <c r="Y33" t="n">
-        <v>1048.73599250681</v>
+        <v>808.8957439404544</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>296.6854897332241</v>
+        <v>488.2888770307324</v>
       </c>
       <c r="C34" t="n">
-        <v>296.6854897332241</v>
+        <v>488.2888770307324</v>
       </c>
       <c r="D34" t="n">
-        <v>296.6854897332241</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E34" t="n">
-        <v>296.6854897332241</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F34" t="n">
-        <v>149.7955422353138</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G34" t="n">
         <v>43.36919653809314</v>
@@ -6888,22 +6888,22 @@
         <v>520.2893470406005</v>
       </c>
       <c r="T34" t="n">
-        <v>296.6854897332241</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="U34" t="n">
-        <v>296.6854897332241</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="V34" t="n">
-        <v>296.6854897332241</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="W34" t="n">
-        <v>296.6854897332241</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="X34" t="n">
-        <v>296.6854897332241</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="Y34" t="n">
-        <v>296.6854897332241</v>
+        <v>520.2893470406005</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1256.174399222538</v>
+        <v>1452.685415533623</v>
       </c>
       <c r="C35" t="n">
-        <v>1256.174399222538</v>
+        <v>1452.685415533623</v>
       </c>
       <c r="D35" t="n">
         <v>1256.174399222538</v>
@@ -6964,25 +6964,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S35" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T35" t="n">
-        <v>2168.459826904657</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U35" t="n">
-        <v>2032.913571262471</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="V35" t="n">
-        <v>2032.913571262471</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="W35" t="n">
-        <v>2032.913571262471</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="X35" t="n">
-        <v>2032.913571262471</v>
+        <v>1452.685415533623</v>
       </c>
       <c r="Y35" t="n">
-        <v>1642.774239286659</v>
+        <v>1452.685415533623</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>904.8600091750928</v>
+        <v>462.2120024116382</v>
       </c>
       <c r="C36" t="n">
-        <v>730.4069798939659</v>
+        <v>287.7589731305112</v>
       </c>
       <c r="D36" t="n">
-        <v>581.4725702327146</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="E36" t="n">
-        <v>422.235115227259</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="F36" t="n">
-        <v>275.700557254144</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G36" t="n">
         <v>138.8245634692599</v>
@@ -7040,28 +7040,28 @@
         <v>1766.22704733349</v>
       </c>
       <c r="R36" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S36" t="n">
-        <v>1734.238298972667</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="T36" t="n">
-        <v>1539.527977446643</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="U36" t="n">
-        <v>1488.687145165648</v>
+        <v>1399.160796968472</v>
       </c>
       <c r="V36" t="n">
-        <v>1488.687145165648</v>
+        <v>1164.008688736729</v>
       </c>
       <c r="W36" t="n">
-        <v>1488.687145165648</v>
+        <v>909.7713320085277</v>
       </c>
       <c r="X36" t="n">
-        <v>1280.835644960115</v>
+        <v>701.9198318029948</v>
       </c>
       <c r="Y36" t="n">
-        <v>1073.075346195161</v>
+        <v>494.1595330380409</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>411.1248508126828</v>
+        <v>265.6048588347137</v>
       </c>
       <c r="C37" t="n">
-        <v>242.1886678847759</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="D37" t="n">
-        <v>242.1886678847759</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="E37" t="n">
-        <v>242.1886678847759</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="F37" t="n">
-        <v>95.29872038686557</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G37" t="n">
-        <v>43.36919653809314</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H37" t="n">
         <v>43.36919653809314</v>
@@ -7119,28 +7119,28 @@
         <v>520.2893470406005</v>
       </c>
       <c r="R37" t="n">
-        <v>411.1248508126828</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="S37" t="n">
-        <v>411.1248508126828</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="T37" t="n">
-        <v>411.1248508126828</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="U37" t="n">
-        <v>411.1248508126828</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="V37" t="n">
-        <v>411.1248508126828</v>
+        <v>265.6048588347137</v>
       </c>
       <c r="W37" t="n">
-        <v>411.1248508126828</v>
+        <v>265.6048588347137</v>
       </c>
       <c r="X37" t="n">
-        <v>411.1248508126828</v>
+        <v>265.6048588347137</v>
       </c>
       <c r="Y37" t="n">
-        <v>411.1248508126828</v>
+        <v>265.6048588347137</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>828.3627587750976</v>
+        <v>1392.578675329485</v>
       </c>
       <c r="C38" t="n">
-        <v>459.4002418346859</v>
+        <v>1023.616158389074</v>
       </c>
       <c r="D38" t="n">
-        <v>459.4002418346859</v>
+        <v>845.1884944329302</v>
       </c>
       <c r="E38" t="n">
         <v>459.4002418346859</v>
@@ -7204,22 +7204,22 @@
         <v>2036.325171642788</v>
       </c>
       <c r="T38" t="n">
-        <v>1858.709095152522</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U38" t="n">
-        <v>1605.101930815031</v>
+        <v>1782.718007305297</v>
       </c>
       <c r="V38" t="n">
-        <v>1605.101930815031</v>
+        <v>1782.718007305297</v>
       </c>
       <c r="W38" t="n">
-        <v>1605.101930815031</v>
+        <v>1782.718007305297</v>
       </c>
       <c r="X38" t="n">
-        <v>1605.101930815031</v>
+        <v>1782.718007305297</v>
       </c>
       <c r="Y38" t="n">
-        <v>1214.962598839219</v>
+        <v>1392.578675329485</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>692.6512287385005</v>
+        <v>941.5261380428188</v>
       </c>
       <c r="C39" t="n">
-        <v>518.1981994573736</v>
+        <v>767.0731087616919</v>
       </c>
       <c r="D39" t="n">
-        <v>518.1981994573736</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E39" t="n">
-        <v>422.235115227259</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F39" t="n">
-        <v>275.700557254144</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G39" t="n">
-        <v>138.8245634692599</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H39" t="n">
-        <v>43.36919653809314</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="I39" t="n">
         <v>43.36919653809314</v>
@@ -7280,25 +7280,25 @@
         <v>1766.22704733349</v>
       </c>
       <c r="S39" t="n">
-        <v>1766.22704733349</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.516725807466</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="U39" t="n">
-        <v>1343.41513594073</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="V39" t="n">
-        <v>1108.263027708987</v>
+        <v>1392.110278603465</v>
       </c>
       <c r="W39" t="n">
-        <v>1108.263027708987</v>
+        <v>1317.501773827841</v>
       </c>
       <c r="X39" t="n">
-        <v>900.4115275034544</v>
+        <v>1317.501773827841</v>
       </c>
       <c r="Y39" t="n">
-        <v>692.6512287385005</v>
+        <v>1109.741475062887</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.4382088709817</v>
+        <v>491.4391430290293</v>
       </c>
       <c r="C40" t="n">
-        <v>211.5020259430748</v>
+        <v>491.4391430290293</v>
       </c>
       <c r="D40" t="n">
-        <v>211.5020259430748</v>
+        <v>341.3225036166936</v>
       </c>
       <c r="E40" t="n">
-        <v>211.5020259430748</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="F40" t="n">
-        <v>211.5020259430748</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G40" t="n">
-        <v>43.36919653809314</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H40" t="n">
         <v>43.36919653809314</v>
@@ -7365,19 +7365,19 @@
         <v>520.2893470406005</v>
       </c>
       <c r="U40" t="n">
-        <v>380.4382088709817</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="V40" t="n">
-        <v>380.4382088709817</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="W40" t="n">
-        <v>380.4382088709817</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="X40" t="n">
-        <v>380.4382088709817</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="Y40" t="n">
-        <v>380.4382088709817</v>
+        <v>520.2893470406005</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1953.72552031479</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="C41" t="n">
-        <v>1584.763003374378</v>
+        <v>1214.827258283184</v>
       </c>
       <c r="D41" t="n">
-        <v>1226.497304767628</v>
+        <v>856.5615596764333</v>
       </c>
       <c r="E41" t="n">
-        <v>840.7090521693833</v>
+        <v>856.5615596764333</v>
       </c>
       <c r="F41" t="n">
-        <v>429.7231473797758</v>
+        <v>445.5756548868257</v>
       </c>
       <c r="G41" t="n">
-        <v>429.7231473797758</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H41" t="n">
         <v>122.3223344947425</v>
@@ -7444,19 +7444,19 @@
         <v>2168.459826904657</v>
       </c>
       <c r="U41" t="n">
-        <v>2168.459826904657</v>
+        <v>1914.852662567166</v>
       </c>
       <c r="V41" t="n">
-        <v>2168.459826904657</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="W41" t="n">
-        <v>2168.459826904657</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="X41" t="n">
-        <v>2168.459826904657</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="Y41" t="n">
-        <v>2168.459826904657</v>
+        <v>1583.789775223595</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>646.2653722158318</v>
+        <v>464.908856516255</v>
       </c>
       <c r="C42" t="n">
-        <v>471.8123429347048</v>
+        <v>290.4558272351279</v>
       </c>
       <c r="D42" t="n">
-        <v>322.8779332734536</v>
+        <v>290.4558272351279</v>
       </c>
       <c r="E42" t="n">
-        <v>322.8779332734536</v>
+        <v>290.4558272351279</v>
       </c>
       <c r="F42" t="n">
-        <v>176.3433753003385</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G42" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H42" t="n">
         <v>43.36919653809314</v>
@@ -7520,22 +7520,22 @@
         <v>1766.22704733349</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.516725807466</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U42" t="n">
-        <v>1343.41513594073</v>
+        <v>1538.125457466754</v>
       </c>
       <c r="V42" t="n">
-        <v>1108.263027708987</v>
+        <v>1302.973349235011</v>
       </c>
       <c r="W42" t="n">
-        <v>854.0256709807857</v>
+        <v>1048.73599250681</v>
       </c>
       <c r="X42" t="n">
-        <v>854.0256709807857</v>
+        <v>840.8844923012769</v>
       </c>
       <c r="Y42" t="n">
-        <v>646.2653722158318</v>
+        <v>633.124193536323</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.12031052680959</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="C43" t="n">
-        <v>93.12031052680959</v>
+        <v>351.3531641126937</v>
       </c>
       <c r="D43" t="n">
-        <v>93.12031052680959</v>
+        <v>351.3531641126937</v>
       </c>
       <c r="E43" t="n">
-        <v>93.12031052680959</v>
+        <v>203.4400705303005</v>
       </c>
       <c r="F43" t="n">
-        <v>93.12031052680959</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G43" t="n">
-        <v>43.36919653809314</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H43" t="n">
         <v>43.36919653809314</v>
@@ -7596,25 +7596,25 @@
         <v>520.2893470406005</v>
       </c>
       <c r="S43" t="n">
-        <v>321.1098614248269</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="T43" t="n">
-        <v>321.1098614248269</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="U43" t="n">
-        <v>321.1098614248269</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="V43" t="n">
-        <v>321.1098614248269</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="W43" t="n">
-        <v>321.1098614248269</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="X43" t="n">
-        <v>93.12031052680959</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.12031052680959</v>
+        <v>520.2893470406005</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1198.409052532695</v>
+        <v>1020.847122105397</v>
       </c>
       <c r="C44" t="n">
-        <v>1198.409052532695</v>
+        <v>651.884605164985</v>
       </c>
       <c r="D44" t="n">
-        <v>840.1433539259449</v>
+        <v>533.3082392843501</v>
       </c>
       <c r="E44" t="n">
-        <v>454.3551013277007</v>
+        <v>533.3082392843501</v>
       </c>
       <c r="F44" t="n">
-        <v>43.36919653809314</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="G44" t="n">
-        <v>43.36919653809314</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H44" t="n">
-        <v>43.36919653809314</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I44" t="n">
         <v>43.36919653809314</v>
       </c>
       <c r="J44" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K44" t="n">
         <v>366.8168396232727</v>
@@ -7675,25 +7675,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T44" t="n">
-        <v>2036.325171642788</v>
+        <v>1958.285829056572</v>
       </c>
       <c r="U44" t="n">
-        <v>2036.325171642788</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="V44" t="n">
-        <v>1705.262284299217</v>
+        <v>1373.615777375511</v>
       </c>
       <c r="W44" t="n">
-        <v>1352.493629029103</v>
+        <v>1020.847122105397</v>
       </c>
       <c r="X44" t="n">
-        <v>1352.493629029103</v>
+        <v>1020.847122105397</v>
       </c>
       <c r="Y44" t="n">
-        <v>1352.493629029103</v>
+        <v>1020.847122105397</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>809.404642243926</v>
+        <v>693.0104463829907</v>
       </c>
       <c r="C45" t="n">
-        <v>634.951612962799</v>
+        <v>518.5574171018637</v>
       </c>
       <c r="D45" t="n">
-        <v>486.0172033015477</v>
+        <v>369.6230074406125</v>
       </c>
       <c r="E45" t="n">
         <v>326.7797482960922</v>
@@ -7760,19 +7760,19 @@
         <v>1766.22704733349</v>
       </c>
       <c r="U45" t="n">
-        <v>1538.125457466754</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="V45" t="n">
-        <v>1302.973349235011</v>
+        <v>1531.074939101747</v>
       </c>
       <c r="W45" t="n">
-        <v>1048.73599250681</v>
+        <v>1276.837582373546</v>
       </c>
       <c r="X45" t="n">
-        <v>840.8844923012769</v>
+        <v>1068.986082168013</v>
       </c>
       <c r="Y45" t="n">
-        <v>809.404642243926</v>
+        <v>861.2257834030588</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.36919653809314</v>
+        <v>231.1630260146241</v>
       </c>
       <c r="C46" t="n">
-        <v>43.36919653809314</v>
+        <v>231.1630260146241</v>
       </c>
       <c r="D46" t="n">
-        <v>43.36919653809314</v>
+        <v>231.1630260146241</v>
       </c>
       <c r="E46" t="n">
-        <v>43.36919653809314</v>
+        <v>231.1630260146241</v>
       </c>
       <c r="F46" t="n">
-        <v>43.36919653809314</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="G46" t="n">
         <v>43.36919653809314</v>
@@ -7833,25 +7833,25 @@
         <v>520.2893470406005</v>
       </c>
       <c r="S46" t="n">
-        <v>321.1098614248269</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="T46" t="n">
-        <v>97.50600411745054</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="U46" t="n">
-        <v>97.50600411745054</v>
+        <v>231.1630260146241</v>
       </c>
       <c r="V46" t="n">
-        <v>97.50600411745054</v>
+        <v>231.1630260146241</v>
       </c>
       <c r="W46" t="n">
-        <v>43.36919653809314</v>
+        <v>231.1630260146241</v>
       </c>
       <c r="X46" t="n">
-        <v>43.36919653809314</v>
+        <v>231.1630260146241</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.36919653809314</v>
+        <v>231.1630260146241</v>
       </c>
     </row>
   </sheetData>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.938834636356</v>
+        <v>380.8855854554453</v>
       </c>
       <c r="C2" t="n">
-        <v>363.4246355629722</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22597,10 +22597,10 @@
         <v>115.3674336481769</v>
       </c>
       <c r="S2" t="n">
-        <v>172.6645079492214</v>
+        <v>122.8695009220968</v>
       </c>
       <c r="T2" t="n">
-        <v>216.1119122710508</v>
+        <v>166.3169052439262</v>
       </c>
       <c r="U2" t="n">
         <v>251.2180195592479</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>319.9360936513444</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>336.4429316289289</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>122.9134919611911</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>95.27420536625925</v>
       </c>
       <c r="G3" t="n">
         <v>136.4898938890125</v>
@@ -22649,7 +22649,7 @@
         <v>70.13228042782632</v>
       </c>
       <c r="J3" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>92.6799817290989</v>
@@ -22682,19 +22682,19 @@
         <v>196.7240278659264</v>
       </c>
       <c r="U3" t="n">
-        <v>176.0902156279161</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V3" t="n">
-        <v>183.0055801223006</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>207.8355409714283</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>189.3249949774178</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.8876887501797</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22792,25 +22792,25 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>329.9251580519274</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>333.4116440049841</v>
       </c>
       <c r="G5" t="n">
-        <v>413.6947334417681</v>
+        <v>340.1081206625406</v>
       </c>
       <c r="H5" t="n">
-        <v>323.0068303993971</v>
+        <v>321.7552365603931</v>
       </c>
       <c r="I5" t="n">
-        <v>148.4833125319238</v>
+        <v>143.7717713159392</v>
       </c>
       <c r="J5" t="n">
-        <v>44.56856880475192</v>
+        <v>34.19605933636038</v>
       </c>
       <c r="K5" t="n">
-        <v>15.54570289742017</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>35.46192228085542</v>
       </c>
       <c r="R5" t="n">
-        <v>114.5767519404909</v>
+        <v>69.32983553135956</v>
       </c>
       <c r="S5" t="n">
-        <v>172.3776767643943</v>
+        <v>96.1283908966962</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1354257826835</v>
+        <v>215.5218328944231</v>
       </c>
       <c r="U5" t="n">
-        <v>199.2118005616327</v>
+        <v>251.2072356985671</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22868,7 +22868,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>95.43985354430433</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>84.47794711437611</v>
+        <v>71.7103254125917</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9261969612455</v>
+        <v>103.294680046134</v>
       </c>
       <c r="I6" t="n">
-        <v>69.90040401874651</v>
+        <v>67.64908349938912</v>
       </c>
       <c r="J6" t="n">
-        <v>45.55266047403215</v>
+        <v>39.37486489346175</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.15782644800863</v>
+        <v>21.81101977343823</v>
       </c>
       <c r="R6" t="n">
-        <v>92.26183619445767</v>
+        <v>88.20200265662029</v>
       </c>
       <c r="S6" t="n">
-        <v>109.8962073269504</v>
+        <v>154.4878321636994</v>
       </c>
       <c r="T6" t="n">
-        <v>144.6916700596118</v>
+        <v>122.9689181066214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8847795790998</v>
+        <v>225.8804776927571</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>132.3085834667501</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>132.218294040577</v>
       </c>
     </row>
     <row r="7">
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2696840886636</v>
+        <v>167.2148644222634</v>
       </c>
       <c r="H7" t="n">
-        <v>155.814201835988</v>
+        <v>155.3268051656304</v>
       </c>
       <c r="I7" t="n">
-        <v>133.7591589956</v>
+        <v>132.1105821187667</v>
       </c>
       <c r="J7" t="n">
-        <v>75.99984586487786</v>
+        <v>72.12409545038793</v>
       </c>
       <c r="K7" t="n">
-        <v>45.21186227978788</v>
+        <v>38.84281376529884</v>
       </c>
       <c r="L7" t="n">
-        <v>27.64774135187326</v>
+        <v>19.49755203998329</v>
       </c>
       <c r="M7" t="n">
-        <v>25.85947179235004</v>
+        <v>17.2662399038262</v>
       </c>
       <c r="N7" t="n">
-        <v>17.30769649739644</v>
+        <v>8.918792456364031</v>
       </c>
       <c r="O7" t="n">
-        <v>36.50473068115869</v>
+        <v>28.75622001580066</v>
       </c>
       <c r="P7" t="n">
-        <v>50.49061978228498</v>
+        <v>43.86043031148982</v>
       </c>
       <c r="Q7" t="n">
-        <v>91.10635862868878</v>
+        <v>86.51595910858246</v>
       </c>
       <c r="R7" t="n">
-        <v>144.8613331552887</v>
+        <v>142.3964416096969</v>
       </c>
       <c r="S7" t="n">
-        <v>211.4463886533601</v>
+        <v>210.4910313761868</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8636914573385</v>
+        <v>224.6294619736288</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2796859781384</v>
+        <v>286.2766958145166</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>318.1913826526294</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>269.8177099473381</v>
       </c>
       <c r="F8" t="n">
-        <v>294.7633856167878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>348.8462453336366</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -23108,13 +23108,13 @@
         <v>35.33240543971512</v>
       </c>
       <c r="E9" t="n">
-        <v>45.53242033047731</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>55.57694013117262</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>76.90996790879629</v>
       </c>
       <c r="H9" t="n">
         <v>102.3448132540521</v>
@@ -23123,7 +23123,7 @@
         <v>64.26286446312979</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867673</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,10 +23150,10 @@
         <v>82.09559288881302</v>
       </c>
       <c r="S9" t="n">
-        <v>40.54833922112498</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>83.92423484016756</v>
       </c>
       <c r="U9" t="n">
         <v>225.8740072105222</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>93.57003565238072</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.2066026931337</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23238,7 +23238,7 @@
         <v>286.2721982989959</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>248.5122658350244</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>100.4801176868644</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>89.89026753653985</v>
       </c>
       <c r="E11" t="n">
-        <v>137.2959644678039</v>
+        <v>117.1375959881187</v>
       </c>
       <c r="F11" t="n">
-        <v>129.1348949646248</v>
+        <v>173.6465703283982</v>
       </c>
       <c r="G11" t="n">
-        <v>135.0444808416394</v>
+        <v>412.8304410053316</v>
       </c>
       <c r="H11" t="n">
-        <v>313.6964913541691</v>
+        <v>314.1553954847429</v>
       </c>
       <c r="I11" t="n">
-        <v>113.4351644991001</v>
+        <v>115.1626783762095</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.47038454883383</v>
+        <v>60.28514218019296</v>
       </c>
       <c r="S11" t="n">
-        <v>151.6615189718265</v>
+        <v>152.6826128690999</v>
       </c>
       <c r="T11" t="n">
-        <v>212.0772185026012</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1442844361238</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V11" t="n">
-        <v>50.01110769304825</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>94.55501215174388</v>
       </c>
       <c r="E12" t="n">
-        <v>24.14942841492964</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.46002694872712</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>53.97877159446445</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.862484161744234</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>62.06160227948945</v>
+        <v>63.55016376157397</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>194.7362989372607</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8527787661071</v>
+        <v>225.8543560776521</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>30.19675016671638</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H13" t="n">
-        <v>152.1885621842654</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I13" t="n">
-        <v>121.4957479854789</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J13" t="n">
-        <v>47.16896695746789</v>
+        <v>48.59003329612769</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.1691202676203432</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.170057485231865</v>
+        <v>3.601054858194459</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.95935777795543</v>
+        <v>58.6424543505921</v>
       </c>
       <c r="R13" t="n">
-        <v>126.5255318082333</v>
+        <v>127.429298570611</v>
       </c>
       <c r="S13" t="n">
-        <v>204.3396900722228</v>
+        <v>204.689977351535</v>
       </c>
       <c r="T13" t="n">
-        <v>223.1213083936272</v>
+        <v>100.4811057124837</v>
       </c>
       <c r="U13" t="n">
-        <v>286.257442790091</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>104.9926908863939</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>104.1892192951751</v>
+        <v>117.1375959881187</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>199.024744222139</v>
+        <v>412.8304410053316</v>
       </c>
       <c r="H14" t="n">
-        <v>313.696491354169</v>
+        <v>314.1553954847429</v>
       </c>
       <c r="I14" t="n">
-        <v>113.4351644991001</v>
+        <v>115.1626783762095</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>60.28514218019293</v>
       </c>
       <c r="S14" t="n">
-        <v>151.6615189718265</v>
+        <v>152.6826128690999</v>
       </c>
       <c r="T14" t="n">
-        <v>212.0772185026012</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.7961546492886</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>84.44819463326996</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>104.938326594326</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23582,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>122.7242380556248</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.9967467772216</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H15" t="n">
-        <v>99.22847761391856</v>
+        <v>99.46002694872712</v>
       </c>
       <c r="I15" t="n">
-        <v>53.15331188590528</v>
+        <v>53.97877159446444</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.862484161744206</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>62.06160227948943</v>
+        <v>63.55016376157396</v>
       </c>
       <c r="S15" t="n">
-        <v>146.6675018728581</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T15" t="n">
-        <v>194.7362989372607</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8543560776521</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>156.4981443125551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>30.19675016671621</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H16" t="n">
-        <v>152.1885621842654</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I16" t="n">
-        <v>121.4957479854788</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J16" t="n">
-        <v>47.16896695746787</v>
+        <v>48.59003329612767</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1691202676203147</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.170057485231837</v>
+        <v>3.601054858194431</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.9593577779554</v>
+        <v>58.64245435059209</v>
       </c>
       <c r="R16" t="n">
-        <v>126.5255318082333</v>
+        <v>127.429298570611</v>
       </c>
       <c r="S16" t="n">
-        <v>204.3396900722228</v>
+        <v>204.689977351535</v>
       </c>
       <c r="T16" t="n">
-        <v>223.1213083936272</v>
+        <v>100.4811057124836</v>
       </c>
       <c r="U16" t="n">
-        <v>286.257442790091</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>100.4801176868645</v>
       </c>
       <c r="D17" t="n">
-        <v>76.94189084359618</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>162.2416401372536</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.7856316187261</v>
+        <v>412.8304410053316</v>
       </c>
       <c r="H17" t="n">
-        <v>313.696491354169</v>
+        <v>314.1553954847429</v>
       </c>
       <c r="I17" t="n">
-        <v>113.4351644991001</v>
+        <v>115.1626783762095</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.47038454883381</v>
+        <v>60.28514218019296</v>
       </c>
       <c r="S17" t="n">
-        <v>151.6615189718265</v>
+        <v>152.6826128690999</v>
       </c>
       <c r="T17" t="n">
-        <v>212.0772185026012</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1442844361238</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V17" t="n">
-        <v>50.01110769304813</v>
+        <v>62.95948438599186</v>
       </c>
       <c r="W17" t="n">
-        <v>71.49981794032624</v>
+        <v>328.2848648965667</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>104.938326594326</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>136.1798846792098</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9967467772216</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H18" t="n">
-        <v>99.22847761391856</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>53.15331188590528</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>62.06160227948943</v>
+        <v>63.55016376157397</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T18" t="n">
-        <v>194.7362989372607</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8527787661071</v>
+        <v>225.8543560776521</v>
       </c>
       <c r="V18" t="n">
-        <v>37.03006067934393</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>44.5207368205742</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.861892307795</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H19" t="n">
-        <v>152.1885621842654</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I19" t="n">
-        <v>121.4957479854788</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J19" t="n">
-        <v>47.16896695746787</v>
+        <v>48.59003329612769</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1691202676203432</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.170057485231837</v>
+        <v>3.601054858194459</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.9593577779554</v>
+        <v>58.6424543505921</v>
       </c>
       <c r="R19" t="n">
-        <v>126.5255318082333</v>
+        <v>127.429298570611</v>
       </c>
       <c r="S19" t="n">
-        <v>204.3396900722228</v>
+        <v>204.689977351535</v>
       </c>
       <c r="T19" t="n">
-        <v>86.45616625254846</v>
+        <v>223.2071899905374</v>
       </c>
       <c r="U19" t="n">
-        <v>286.257442790091</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>87.53174099392078</v>
+        <v>100.4801176868647</v>
       </c>
       <c r="D20" t="n">
-        <v>76.94189084359618</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.7856316187261</v>
+        <v>412.8304410053316</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7236047215376</v>
+        <v>49.36262140060001</v>
       </c>
       <c r="I20" t="n">
-        <v>113.4351644991001</v>
+        <v>115.1626783762095</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.47038454883381</v>
+        <v>60.28514218019296</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>152.6826128690999</v>
       </c>
       <c r="T20" t="n">
-        <v>212.0772185026012</v>
+        <v>212.2733715924669</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1442844361238</v>
+        <v>251.1478691870522</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>94.52278305682182</v>
       </c>
       <c r="W20" t="n">
-        <v>71.49981794032624</v>
+        <v>84.44819463327013</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,28 +24050,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>124.9154159481019</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0207219127059</v>
       </c>
       <c r="H21" t="n">
-        <v>99.22847761391856</v>
+        <v>99.46002694872712</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>53.97877159446445</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.862484161744234</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>62.06160227948943</v>
+        <v>63.55016376157397</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>147.112829499068</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.8329355579188</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8527787661071</v>
+        <v>225.8543560776521</v>
       </c>
       <c r="V21" t="n">
-        <v>109.6509569212435</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.861892307795</v>
+        <v>166.881992256008</v>
       </c>
       <c r="H22" t="n">
-        <v>152.1885621842654</v>
+        <v>152.3672689965592</v>
       </c>
       <c r="I22" t="n">
-        <v>121.4957479854788</v>
+        <v>122.1002082462846</v>
       </c>
       <c r="J22" t="n">
-        <v>47.16896695746787</v>
+        <v>48.59003329612769</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.1691202676203432</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,34 +24168,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.170057485231837</v>
+        <v>3.601054858194459</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.9593577779554</v>
+        <v>58.6424543505921</v>
       </c>
       <c r="R22" t="n">
-        <v>126.5255318082333</v>
+        <v>127.429298570611</v>
       </c>
       <c r="S22" t="n">
-        <v>204.3396900722228</v>
+        <v>204.689977351535</v>
       </c>
       <c r="T22" t="n">
-        <v>223.1213083936272</v>
+        <v>223.2071899905374</v>
       </c>
       <c r="U22" t="n">
-        <v>286.257442790091</v>
+        <v>286.2585391509027</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>163.7969140585374</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.91951121101602</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>173.8944054622997</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>263.9305769849687</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
         <v>78.16360657708285</v>
@@ -24262,10 +24262,10 @@
         <v>208.0722578696038</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>94.50081326185511</v>
       </c>
       <c r="I24" t="n">
-        <v>36.29946757904879</v>
+        <v>25.18913534471949</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T24" t="n">
-        <v>86.70441629087175</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9875429648872</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H25" t="n">
         <v>148.5398113612452</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>186.515667374715</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24463,7 +24463,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>201.0051566628791</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>9.705712293977967</v>
       </c>
     </row>
     <row r="27">
@@ -24530,16 +24530,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>29.1403587021523</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>94.50081326185511</v>
+        <v>11.6223173797224</v>
       </c>
       <c r="I27" t="n">
         <v>36.29946757904879</v>
@@ -24572,10 +24572,10 @@
         <v>31.6688608772142</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T27" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5663557888583</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U28" t="n">
-        <v>108.120629859378</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>209.6548723067234</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>274.7961374510286</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24764,16 +24764,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>84.32856311961689</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H30" t="n">
         <v>94.50081326185511</v>
@@ -24812,7 +24812,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>115.5858793703712</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T31" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>1.354513060648344</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>40.08170472814584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>136.7714936804404</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
         <v>208.0722578696038</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>100.3734616307673</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>24.09596015146778</v>
+        <v>31.52975912326914</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I33" t="n">
         <v>36.29946757904879</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.6688608772142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>137.5750138932992</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>148.1515148721678</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>61.08941887068337</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
         <v>148.5398113612452</v>
@@ -25128,7 +25128,7 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U34" t="n">
         <v>286.2350578157167</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>160.1371354727083</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>116.8802996083519</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>134.9051283297286</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.6688608772142</v>
       </c>
       <c r="S36" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
-        <v>175.4881500098828</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>95.77332678621872</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>115.0412725006471</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H37" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>109.1541654470835</v>
@@ -25359,7 +25359,7 @@
         <v>22.59469128425542</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S37" t="n">
         <v>197.1876907596158</v>
@@ -25371,7 +25371,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>178.0396543041009</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>32.23234214424065</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>62.64162706758756</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>31.6688608772142</v>
       </c>
       <c r="S39" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>177.8325634330515</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>151.2702782104818</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H40" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>109.1541654470835</v>
@@ -25605,7 +25605,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U40" t="n">
-        <v>147.782431027794</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.1468781395121</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8707348436268</v>
+        <v>91.84994765546446</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>208.0722578696038</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>35.96068185035469</v>
       </c>
       <c r="G42" t="n">
-        <v>98.36361013426743</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I42" t="n">
         <v>36.29946757904879</v>
@@ -25760,7 +25760,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>135.4906941318911</v>
       </c>
       <c r="G43" t="n">
-        <v>117.1978982621025</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H43" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>109.1541654470835</v>
@@ -25836,7 +25836,7 @@
         <v>108.0728512656385</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T43" t="n">
         <v>221.3678187343026</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230.1901109320368</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>237.2924393988544</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I44" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T44" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>115.2302539023259</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>174.517644220527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.9566579520974</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.5398113612452</v>
@@ -26073,19 +26073,19 @@
         <v>108.0728512656385</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>232.9275588330272</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>290595.928901666</v>
+        <v>290595.9289016658</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>292902.8048010012</v>
+        <v>315266.4842331891</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350749.4278478484</v>
+        <v>350749.4278478483</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465398.3774279353</v>
+        <v>457199.9378709656</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465398.3774279354</v>
+        <v>457199.9378709656</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465398.3774279355</v>
+        <v>457199.9378709655</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465398.3774279355</v>
+        <v>457199.9378709655</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632720.542391764</v>
+        <v>632720.5423917639</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632720.5423917639</v>
+        <v>632720.542391764</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632720.5423917638</v>
+        <v>632720.542391764</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632720.5423917638</v>
+        <v>632720.5423917639</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632720.542391764</v>
+        <v>632720.5423917639</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632720.5423917641</v>
+        <v>632720.5423917639</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>124541.1123864281</v>
       </c>
       <c r="C2" t="n">
-        <v>125529.7734861432</v>
+        <v>135114.2075285094</v>
       </c>
       <c r="D2" t="n">
         <v>150321.1833633635</v>
       </c>
       <c r="E2" t="n">
-        <v>199456.4474691152</v>
+        <v>195942.8305161281</v>
       </c>
       <c r="F2" t="n">
-        <v>199456.4474691152</v>
+        <v>195942.830516128</v>
       </c>
       <c r="G2" t="n">
-        <v>199456.4474691152</v>
+        <v>195942.830516128</v>
       </c>
       <c r="H2" t="n">
-        <v>199456.4474691152</v>
+        <v>195942.830516128</v>
       </c>
       <c r="I2" t="n">
         <v>271165.9467393273</v>
@@ -26349,13 +26349,13 @@
         <v>271165.9467393272</v>
       </c>
       <c r="N2" t="n">
-        <v>271165.9467393273</v>
+        <v>271165.9467393272</v>
       </c>
       <c r="O2" t="n">
         <v>271165.9467393273</v>
       </c>
       <c r="P2" t="n">
-        <v>271165.9467393273</v>
+        <v>271165.9467393272</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>399106.8526518422</v>
       </c>
       <c r="C3" t="n">
-        <v>3565.211031542055</v>
+        <v>38180.34408023355</v>
       </c>
       <c r="D3" t="n">
-        <v>83865.46793011697</v>
+        <v>51164.61695028646</v>
       </c>
       <c r="E3" t="n">
-        <v>169974.9947093541</v>
+        <v>157153.895380903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>241613.5954508984</v>
+        <v>253447.2331927455</v>
       </c>
       <c r="J3" t="n">
         <v>13028.564818605</v>
       </c>
       <c r="K3" t="n">
-        <v>568.8360386924197</v>
+        <v>6091.744777621049</v>
       </c>
       <c r="L3" t="n">
-        <v>15212.65414823859</v>
+        <v>9781.526363726971</v>
       </c>
       <c r="M3" t="n">
-        <v>41275.28238448163</v>
+        <v>38048.49511909331</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>32.53856901697746</v>
+        <v>49.92675977318713</v>
       </c>
       <c r="D4" t="n">
         <v>81.37067654131208</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9691130374095</v>
+        <v>190.1009848322017</v>
       </c>
       <c r="F4" t="n">
-        <v>198.9691130374096</v>
+        <v>190.1009848322018</v>
       </c>
       <c r="G4" t="n">
-        <v>198.9691130374096</v>
+        <v>190.1009848322017</v>
       </c>
       <c r="H4" t="n">
-        <v>198.9691130374096</v>
+        <v>190.1009848322017</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469144</v>
@@ -26472,22 +26472,22 @@
         <v>45306.68319048216</v>
       </c>
       <c r="C5" t="n">
-        <v>45509.32097968736</v>
+        <v>47476.75964516138</v>
       </c>
       <c r="D5" t="n">
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>30536.29796699847</v>
+        <v>29506.0465628524</v>
       </c>
       <c r="F5" t="n">
-        <v>30536.29796699847</v>
+        <v>29506.0465628524</v>
       </c>
       <c r="G5" t="n">
-        <v>30536.29796699847</v>
+        <v>29506.0465628524</v>
       </c>
       <c r="H5" t="n">
-        <v>30536.29796699847</v>
+        <v>29506.04656285239</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587232</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334498.9023216472</v>
+        <v>-321362.9387448335</v>
       </c>
       <c r="C6" t="n">
-        <v>61874.26692053462</v>
+        <v>47997.97360691162</v>
       </c>
       <c r="D6" t="n">
-        <v>2183.078987107026</v>
+        <v>46915.03335902547</v>
       </c>
       <c r="E6" t="n">
-        <v>-12281.932496924</v>
+        <v>7973.244260575579</v>
       </c>
       <c r="F6" t="n">
-        <v>157693.0622124301</v>
+        <v>165127.1396414785</v>
       </c>
       <c r="G6" t="n">
-        <v>157693.0622124301</v>
+        <v>165127.1396414785</v>
       </c>
       <c r="H6" t="n">
-        <v>157693.0622124301</v>
+        <v>165127.1396414786</v>
       </c>
       <c r="I6" t="n">
-        <v>-30016.83260885328</v>
+        <v>-34998.42824615379</v>
       </c>
       <c r="J6" t="n">
-        <v>198568.1980234401</v>
+        <v>205420.2401279868</v>
       </c>
       <c r="K6" t="n">
-        <v>211027.9268033527</v>
+        <v>212357.0601689707</v>
       </c>
       <c r="L6" t="n">
-        <v>196384.1086938065</v>
+        <v>208667.2785828648</v>
       </c>
       <c r="M6" t="n">
-        <v>170321.4804575634</v>
+        <v>180400.3098274984</v>
       </c>
       <c r="N6" t="n">
-        <v>211596.7628420451</v>
+        <v>218448.8049465917</v>
       </c>
       <c r="O6" t="n">
-        <v>211596.7628420451</v>
+        <v>218448.8049465918</v>
       </c>
       <c r="P6" t="n">
-        <v>211596.7628420452</v>
+        <v>218448.8049465917</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>399.9910132500468</v>
+        <v>430.3910100719429</v>
       </c>
       <c r="D3" t="n">
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>626.1300917317246</v>
+        <v>614.983756813601</v>
       </c>
       <c r="F3" t="n">
-        <v>626.1300917317247</v>
+        <v>614.9837568136011</v>
       </c>
       <c r="G3" t="n">
-        <v>626.1300917317247</v>
+        <v>614.983756813601</v>
       </c>
       <c r="H3" t="n">
-        <v>626.1300917317247</v>
+        <v>614.983756813601</v>
       </c>
       <c r="I3" t="n">
         <v>853.710664537685</v>
@@ -26792,22 +26792,22 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>52.00521202033443</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="D4" t="n">
         <v>112.1126601249236</v>
       </c>
       <c r="E4" t="n">
-        <v>277.7411507770867</v>
+        <v>264.7927740841431</v>
       </c>
       <c r="F4" t="n">
-        <v>277.7411507770867</v>
+        <v>264.792774084143</v>
       </c>
       <c r="G4" t="n">
-        <v>277.7411507770868</v>
+        <v>264.792774084143</v>
       </c>
       <c r="H4" t="n">
-        <v>277.7411507770868</v>
+        <v>264.7927740841429</v>
       </c>
       <c r="I4" t="n">
         <v>542.1149567261642</v>
@@ -26962,13 +26962,13 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>3.131069982478778</v>
+        <v>33.53106680437492</v>
       </c>
       <c r="D3" t="n">
-        <v>76.12473794845533</v>
+        <v>45.72474112655919</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0143405332225</v>
+        <v>138.8680056150988</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>227.5805728059603</v>
+        <v>238.7269077240841</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2102049932098</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="D4" t="n">
-        <v>60.10744810458921</v>
+        <v>38.64825838819623</v>
       </c>
       <c r="E4" t="n">
-        <v>165.628490652163</v>
+        <v>152.6801139592194</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>264.3738059490775</v>
+        <v>277.3221826420213</v>
       </c>
       <c r="J4" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2102049932098</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="L4" t="n">
-        <v>60.10744810458921</v>
+        <v>38.64825838819623</v>
       </c>
       <c r="M4" t="n">
-        <v>165.628490652163</v>
+        <v>152.6801139592194</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2102049932098</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="L4" t="n">
-        <v>60.10744810458921</v>
+        <v>38.64825838819623</v>
       </c>
       <c r="M4" t="n">
-        <v>165.628490652163</v>
+        <v>152.6801139592194</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.608004073367021</v>
+        <v>1.730215115867106</v>
       </c>
       <c r="H5" t="n">
-        <v>16.46797171637001</v>
+        <v>17.719565555374</v>
       </c>
       <c r="I5" t="n">
-        <v>61.99257703848215</v>
+        <v>66.70411825446666</v>
       </c>
       <c r="J5" t="n">
-        <v>136.4773357219344</v>
+        <v>146.8498451903259</v>
       </c>
       <c r="K5" t="n">
-        <v>204.5441481475604</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>253.7551028078664</v>
+        <v>273.0409218971986</v>
       </c>
       <c r="M5" t="n">
-        <v>282.3514452476072</v>
+        <v>303.8106349640001</v>
       </c>
       <c r="N5" t="n">
-        <v>281.4182756169254</v>
+        <v>302.8774653333184</v>
       </c>
       <c r="O5" t="n">
-        <v>270.9305963165179</v>
+        <v>291.5217821035541</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>248.8070964305848</v>
       </c>
       <c r="Q5" t="n">
-        <v>173.646349877813</v>
+        <v>186.8437675935941</v>
       </c>
       <c r="R5" t="n">
-        <v>101.0087858736412</v>
+        <v>108.6856252720872</v>
       </c>
       <c r="S5" t="n">
-        <v>36.64239282185103</v>
+        <v>39.42727695282172</v>
       </c>
       <c r="T5" t="n">
-        <v>7.039037831164139</v>
+        <v>7.57401666970826</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1286403258693617</v>
+        <v>0.1384172092693684</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8603580285001008</v>
+        <v>0.9257467009094621</v>
       </c>
       <c r="H6" t="n">
-        <v>8.309247275250975</v>
+        <v>8.940764190362438</v>
       </c>
       <c r="I6" t="n">
-        <v>29.62197598125348</v>
+        <v>31.87329650061087</v>
       </c>
       <c r="J6" t="n">
-        <v>81.28496619263454</v>
+        <v>87.46276177320495</v>
       </c>
       <c r="K6" t="n">
-        <v>138.9289541021413</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>186.8071236881469</v>
+        <v>201.0047825812409</v>
       </c>
       <c r="M6" t="n">
-        <v>194.1392459423527</v>
+        <v>215.5984356587457</v>
       </c>
       <c r="N6" t="n">
-        <v>183.3469241036677</v>
+        <v>204.8061138200607</v>
       </c>
       <c r="O6" t="n">
-        <v>164.848947733429</v>
+        <v>181.3037769266046</v>
       </c>
       <c r="P6" t="n">
-        <v>164.2906484422693</v>
+        <v>176.7770169482288</v>
       </c>
       <c r="Q6" t="n">
-        <v>109.8239476380129</v>
+        <v>118.1707543125833</v>
       </c>
       <c r="R6" t="n">
-        <v>53.41766776950628</v>
+        <v>57.47750130734365</v>
       </c>
       <c r="S6" t="n">
-        <v>15.98077302937686</v>
+        <v>17.19533894013846</v>
       </c>
       <c r="T6" t="n">
-        <v>3.467846614875405</v>
+        <v>3.731408851472787</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05660250187500666</v>
+        <v>0.0609043882177278</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7212952697951663</v>
+        <v>0.7761149361953068</v>
       </c>
       <c r="H7" t="n">
-        <v>6.412970671451575</v>
+        <v>6.900367341809188</v>
       </c>
       <c r="I7" t="n">
-        <v>21.69131593165828</v>
+        <v>23.3398928084916</v>
       </c>
       <c r="J7" t="n">
-        <v>50.99557557451826</v>
+        <v>54.87132598900818</v>
       </c>
       <c r="K7" t="n">
-        <v>83.8013958907475</v>
+        <v>90.17044440523654</v>
       </c>
       <c r="L7" t="n">
-        <v>107.236934929365</v>
+        <v>115.387124241255</v>
       </c>
       <c r="M7" t="n">
-        <v>113.066312155255</v>
+        <v>121.6595440437789</v>
       </c>
       <c r="N7" t="n">
-        <v>110.3778479678368</v>
+        <v>118.7667520088692</v>
       </c>
       <c r="O7" t="n">
-        <v>101.9518077706841</v>
+        <v>109.7003184360421</v>
       </c>
       <c r="P7" t="n">
-        <v>87.23738426686263</v>
+        <v>93.86757373765779</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.39864300075707</v>
+        <v>64.98904252086338</v>
       </c>
       <c r="R7" t="n">
-        <v>32.43205822188084</v>
+        <v>34.89694976747261</v>
       </c>
       <c r="S7" t="n">
-        <v>12.57020938361212</v>
+        <v>13.52556666078548</v>
       </c>
       <c r="T7" t="n">
-        <v>3.081897970942983</v>
+        <v>3.316127454652674</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03934337835246366</v>
+        <v>0.04233354197428951</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31612,7 +31612,7 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>199.9629954989596</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
         <v>243.4543722082569</v>
@@ -31621,7 +31621,7 @@
         <v>243.6589731628787</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>141.2741087697571</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.517105896408941</v>
+        <v>2.472296509803419</v>
       </c>
       <c r="H11" t="n">
-        <v>25.77831076159808</v>
+        <v>25.31940663102427</v>
       </c>
       <c r="I11" t="n">
-        <v>97.0407250713058</v>
+        <v>95.31321119419641</v>
       </c>
       <c r="J11" t="n">
-        <v>213.6362165753386</v>
+        <v>209.8330758989281</v>
       </c>
       <c r="K11" t="n">
-        <v>320.1853091703291</v>
+        <v>314.4853871589069</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2181887475543</v>
+        <v>390.1469314708034</v>
       </c>
       <c r="M11" t="n">
-        <v>441.9817707328169</v>
+        <v>434.1136345270199</v>
       </c>
       <c r="N11" t="n">
-        <v>449.1334978609888</v>
+        <v>441.1380469854989</v>
       </c>
       <c r="O11" t="n">
-        <v>424.1040261035723</v>
+        <v>416.5541485661412</v>
       </c>
       <c r="P11" t="n">
-        <v>361.9629742859765</v>
+        <v>355.5193284803692</v>
       </c>
       <c r="Q11" t="n">
-        <v>271.8191193708312</v>
+        <v>266.9802097230341</v>
       </c>
       <c r="R11" t="n">
-        <v>158.1151532652983</v>
+        <v>155.3003956339392</v>
       </c>
       <c r="S11" t="n">
-        <v>57.35855061441881</v>
+        <v>56.33745671714547</v>
       </c>
       <c r="T11" t="n">
-        <v>11.01863106153015</v>
+        <v>10.82247797166447</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2013684717127153</v>
+        <v>0.1977837207842735</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.346770385988993</v>
+        <v>1.322795250504727</v>
       </c>
       <c r="H12" t="n">
-        <v>13.0069666225779</v>
+        <v>12.77541728776934</v>
       </c>
       <c r="I12" t="n">
-        <v>46.36906811409471</v>
+        <v>45.54360840553555</v>
       </c>
       <c r="J12" t="n">
-        <v>127.2402670376706</v>
+        <v>124.9751425049225</v>
       </c>
       <c r="K12" t="n">
-        <v>217.4738828989331</v>
+        <v>213.6024242887391</v>
       </c>
       <c r="L12" t="n">
-        <v>292.420473501689</v>
+        <v>287.2148196326162</v>
       </c>
       <c r="M12" t="n">
-        <v>341.2408999937899</v>
+        <v>335.1661474634125</v>
       </c>
       <c r="N12" t="n">
-        <v>350.2725312226372</v>
+        <v>344.036998068771</v>
       </c>
       <c r="O12" t="n">
-        <v>320.4309347751969</v>
+        <v>314.7266401496926</v>
       </c>
       <c r="P12" t="n">
-        <v>257.1740748473192</v>
+        <v>252.5958755108543</v>
       </c>
       <c r="Q12" t="n">
-        <v>171.9140583939634</v>
+        <v>168.8536533802174</v>
       </c>
       <c r="R12" t="n">
-        <v>83.6179016844745</v>
+        <v>82.12934020238998</v>
       </c>
       <c r="S12" t="n">
-        <v>25.01566923097974</v>
+        <v>24.5703416047698</v>
       </c>
       <c r="T12" t="n">
-        <v>5.428429757560894</v>
+        <v>5.331793136902822</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08860331486769692</v>
+        <v>0.08702600332267942</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.129087050663766</v>
+        <v>1.108987102450756</v>
       </c>
       <c r="H13" t="n">
-        <v>10.03861032317421</v>
+        <v>9.859903510880363</v>
       </c>
       <c r="I13" t="n">
-        <v>33.95472694177943</v>
+        <v>33.35026668097365</v>
       </c>
       <c r="J13" t="n">
-        <v>79.82645448192822</v>
+        <v>78.40538814326842</v>
       </c>
       <c r="K13" t="n">
-        <v>131.1793864316629</v>
+        <v>128.844137902915</v>
       </c>
       <c r="L13" t="n">
-        <v>167.864451150502</v>
+        <v>164.8761370316333</v>
       </c>
       <c r="M13" t="n">
-        <v>176.9895274054119</v>
+        <v>173.8387691596216</v>
       </c>
       <c r="N13" t="n">
-        <v>172.7811120347562</v>
+        <v>169.7052717777599</v>
       </c>
       <c r="O13" t="n">
-        <v>159.5913223974567</v>
+        <v>156.7502860809487</v>
       </c>
       <c r="P13" t="n">
-        <v>136.5579465639157</v>
+        <v>134.1269491909532</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.54564385149041</v>
+        <v>92.86254727885374</v>
       </c>
       <c r="R13" t="n">
-        <v>50.76785956893621</v>
+        <v>49.86409280655851</v>
       </c>
       <c r="S13" t="n">
-        <v>19.67690796474944</v>
+        <v>19.32662068543726</v>
       </c>
       <c r="T13" t="n">
-        <v>4.82428103465427</v>
+        <v>4.738399437744137</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06158656639984183</v>
+        <v>0.06049020558822311</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.517105896408942</v>
+        <v>2.47229650980342</v>
       </c>
       <c r="H14" t="n">
-        <v>25.77831076159808</v>
+        <v>25.31940663102428</v>
       </c>
       <c r="I14" t="n">
-        <v>97.04072507130583</v>
+        <v>95.31321119419643</v>
       </c>
       <c r="J14" t="n">
-        <v>213.6362165753386</v>
+        <v>209.8330758989282</v>
       </c>
       <c r="K14" t="n">
-        <v>320.1853091703292</v>
+        <v>314.485387158907</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2181887475544</v>
+        <v>390.1469314708035</v>
       </c>
       <c r="M14" t="n">
-        <v>441.9817707328169</v>
+        <v>434.11363452702</v>
       </c>
       <c r="N14" t="n">
-        <v>449.1334978609889</v>
+        <v>441.138046985499</v>
       </c>
       <c r="O14" t="n">
-        <v>424.1040261035724</v>
+        <v>416.5541485661412</v>
       </c>
       <c r="P14" t="n">
-        <v>361.9629742859766</v>
+        <v>355.5193284803693</v>
       </c>
       <c r="Q14" t="n">
-        <v>271.8191193708313</v>
+        <v>266.9802097230342</v>
       </c>
       <c r="R14" t="n">
-        <v>158.1151532652983</v>
+        <v>155.3003956339392</v>
       </c>
       <c r="S14" t="n">
-        <v>57.35855061441882</v>
+        <v>56.33745671714548</v>
       </c>
       <c r="T14" t="n">
-        <v>11.01863106153015</v>
+        <v>10.82247797166447</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2013684717127153</v>
+        <v>0.1977837207842735</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.346770385988993</v>
+        <v>1.322795250504727</v>
       </c>
       <c r="H15" t="n">
-        <v>13.00696662257791</v>
+        <v>12.77541728776934</v>
       </c>
       <c r="I15" t="n">
-        <v>46.36906811409472</v>
+        <v>45.54360840553556</v>
       </c>
       <c r="J15" t="n">
-        <v>127.2402670376706</v>
+        <v>124.9751425049225</v>
       </c>
       <c r="K15" t="n">
-        <v>217.4738828989331</v>
+        <v>213.6024242887392</v>
       </c>
       <c r="L15" t="n">
-        <v>292.420473501689</v>
+        <v>287.2148196326163</v>
       </c>
       <c r="M15" t="n">
-        <v>341.2408999937899</v>
+        <v>335.1661474634125</v>
       </c>
       <c r="N15" t="n">
-        <v>350.2725312226373</v>
+        <v>344.0369980687711</v>
       </c>
       <c r="O15" t="n">
-        <v>320.4309347751969</v>
+        <v>314.7266401496926</v>
       </c>
       <c r="P15" t="n">
-        <v>257.1740748473192</v>
+        <v>252.5958755108544</v>
       </c>
       <c r="Q15" t="n">
-        <v>171.9140583939634</v>
+        <v>168.8536533802174</v>
       </c>
       <c r="R15" t="n">
-        <v>83.61790168447452</v>
+        <v>82.12934020239</v>
       </c>
       <c r="S15" t="n">
-        <v>25.01566923097974</v>
+        <v>24.5703416047698</v>
       </c>
       <c r="T15" t="n">
-        <v>5.428429757560894</v>
+        <v>5.331793136902823</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08860331486769693</v>
+        <v>0.08702600332267943</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.129087050663766</v>
+        <v>1.108987102450756</v>
       </c>
       <c r="H16" t="n">
-        <v>10.03861032317422</v>
+        <v>9.859903510880365</v>
       </c>
       <c r="I16" t="n">
-        <v>33.95472694177944</v>
+        <v>33.35026668097365</v>
       </c>
       <c r="J16" t="n">
-        <v>79.82645448192824</v>
+        <v>78.40538814326844</v>
       </c>
       <c r="K16" t="n">
-        <v>131.1793864316629</v>
+        <v>128.8441379029151</v>
       </c>
       <c r="L16" t="n">
-        <v>167.8644511505021</v>
+        <v>164.8761370316333</v>
       </c>
       <c r="M16" t="n">
-        <v>176.9895274054119</v>
+        <v>173.8387691596216</v>
       </c>
       <c r="N16" t="n">
-        <v>172.7811120347562</v>
+        <v>169.7052717777599</v>
       </c>
       <c r="O16" t="n">
-        <v>159.5913223974567</v>
+        <v>156.7502860809487</v>
       </c>
       <c r="P16" t="n">
-        <v>136.5579465639158</v>
+        <v>134.1269491909532</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.54564385149044</v>
+        <v>92.86254727885375</v>
       </c>
       <c r="R16" t="n">
-        <v>50.76785956893622</v>
+        <v>49.86409280655852</v>
       </c>
       <c r="S16" t="n">
-        <v>19.67690796474944</v>
+        <v>19.32662068543726</v>
       </c>
       <c r="T16" t="n">
-        <v>4.824281034654271</v>
+        <v>4.738399437744138</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06158656639984184</v>
+        <v>0.06049020558822312</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.517105896408942</v>
+        <v>2.472296509803419</v>
       </c>
       <c r="H17" t="n">
-        <v>25.77831076159808</v>
+        <v>25.31940663102427</v>
       </c>
       <c r="I17" t="n">
-        <v>97.04072507130583</v>
+        <v>95.31321119419641</v>
       </c>
       <c r="J17" t="n">
-        <v>213.6362165753386</v>
+        <v>209.8330758989281</v>
       </c>
       <c r="K17" t="n">
-        <v>320.1853091703292</v>
+        <v>314.4853871589069</v>
       </c>
       <c r="L17" t="n">
-        <v>397.2181887475544</v>
+        <v>390.1469314708034</v>
       </c>
       <c r="M17" t="n">
-        <v>441.9817707328169</v>
+        <v>434.1136345270199</v>
       </c>
       <c r="N17" t="n">
-        <v>449.1334978609889</v>
+        <v>441.1380469854989</v>
       </c>
       <c r="O17" t="n">
-        <v>424.1040261035724</v>
+        <v>416.5541485661412</v>
       </c>
       <c r="P17" t="n">
-        <v>361.9629742859766</v>
+        <v>355.5193284803692</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.8191193708313</v>
+        <v>266.9802097230341</v>
       </c>
       <c r="R17" t="n">
-        <v>158.1151532652983</v>
+        <v>155.3003956339392</v>
       </c>
       <c r="S17" t="n">
-        <v>57.35855061441882</v>
+        <v>56.33745671714547</v>
       </c>
       <c r="T17" t="n">
-        <v>11.01863106153015</v>
+        <v>10.82247797166447</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2013684717127153</v>
+        <v>0.1977837207842735</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.346770385988993</v>
+        <v>1.322795250504727</v>
       </c>
       <c r="H18" t="n">
-        <v>13.00696662257791</v>
+        <v>12.77541728776934</v>
       </c>
       <c r="I18" t="n">
-        <v>46.36906811409472</v>
+        <v>45.54360840553555</v>
       </c>
       <c r="J18" t="n">
-        <v>127.2402670376706</v>
+        <v>124.9751425049225</v>
       </c>
       <c r="K18" t="n">
-        <v>217.4738828989331</v>
+        <v>213.6024242887391</v>
       </c>
       <c r="L18" t="n">
-        <v>292.420473501689</v>
+        <v>287.2148196326162</v>
       </c>
       <c r="M18" t="n">
-        <v>341.2408999937899</v>
+        <v>335.1661474634125</v>
       </c>
       <c r="N18" t="n">
-        <v>350.2725312226373</v>
+        <v>344.036998068771</v>
       </c>
       <c r="O18" t="n">
-        <v>320.4309347751969</v>
+        <v>314.7266401496926</v>
       </c>
       <c r="P18" t="n">
-        <v>257.1740748473192</v>
+        <v>252.5958755108543</v>
       </c>
       <c r="Q18" t="n">
-        <v>171.9140583939634</v>
+        <v>168.8536533802174</v>
       </c>
       <c r="R18" t="n">
-        <v>83.61790168447452</v>
+        <v>82.12934020238998</v>
       </c>
       <c r="S18" t="n">
-        <v>25.01566923097974</v>
+        <v>24.5703416047698</v>
       </c>
       <c r="T18" t="n">
-        <v>5.428429757560894</v>
+        <v>5.331793136902822</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08860331486769693</v>
+        <v>0.08702600332267942</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.129087050663766</v>
+        <v>1.108987102450756</v>
       </c>
       <c r="H19" t="n">
-        <v>10.03861032317422</v>
+        <v>9.859903510880363</v>
       </c>
       <c r="I19" t="n">
-        <v>33.95472694177944</v>
+        <v>33.35026668097365</v>
       </c>
       <c r="J19" t="n">
-        <v>79.82645448192824</v>
+        <v>78.40538814326842</v>
       </c>
       <c r="K19" t="n">
-        <v>131.1793864316629</v>
+        <v>128.844137902915</v>
       </c>
       <c r="L19" t="n">
-        <v>167.8644511505021</v>
+        <v>164.8761370316333</v>
       </c>
       <c r="M19" t="n">
-        <v>176.9895274054119</v>
+        <v>173.8387691596216</v>
       </c>
       <c r="N19" t="n">
-        <v>172.7811120347562</v>
+        <v>169.7052717777599</v>
       </c>
       <c r="O19" t="n">
-        <v>159.5913223974567</v>
+        <v>156.7502860809487</v>
       </c>
       <c r="P19" t="n">
-        <v>136.5579465639158</v>
+        <v>134.1269491909532</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.54564385149044</v>
+        <v>92.86254727885374</v>
       </c>
       <c r="R19" t="n">
-        <v>50.76785956893622</v>
+        <v>49.86409280655851</v>
       </c>
       <c r="S19" t="n">
-        <v>19.67690796474944</v>
+        <v>19.32662068543726</v>
       </c>
       <c r="T19" t="n">
-        <v>4.824281034654271</v>
+        <v>4.738399437744137</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06158656639984184</v>
+        <v>0.06049020558822311</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.517105896408942</v>
+        <v>2.472296509803419</v>
       </c>
       <c r="H20" t="n">
-        <v>25.77831076159808</v>
+        <v>25.31940663102427</v>
       </c>
       <c r="I20" t="n">
-        <v>97.04072507130583</v>
+        <v>95.31321119419641</v>
       </c>
       <c r="J20" t="n">
-        <v>213.6362165753386</v>
+        <v>209.8330758989281</v>
       </c>
       <c r="K20" t="n">
-        <v>320.1853091703292</v>
+        <v>314.4853871589069</v>
       </c>
       <c r="L20" t="n">
-        <v>397.2181887475544</v>
+        <v>390.1469314708034</v>
       </c>
       <c r="M20" t="n">
-        <v>441.9817707328169</v>
+        <v>434.1136345270199</v>
       </c>
       <c r="N20" t="n">
-        <v>449.1334978609889</v>
+        <v>441.1380469854989</v>
       </c>
       <c r="O20" t="n">
-        <v>424.1040261035724</v>
+        <v>416.5541485661412</v>
       </c>
       <c r="P20" t="n">
-        <v>361.9629742859766</v>
+        <v>355.5193284803692</v>
       </c>
       <c r="Q20" t="n">
-        <v>271.8191193708313</v>
+        <v>266.9802097230341</v>
       </c>
       <c r="R20" t="n">
-        <v>158.1151532652983</v>
+        <v>155.3003956339392</v>
       </c>
       <c r="S20" t="n">
-        <v>57.35855061441882</v>
+        <v>56.33745671714547</v>
       </c>
       <c r="T20" t="n">
-        <v>11.01863106153015</v>
+        <v>10.82247797166447</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2013684717127153</v>
+        <v>0.1977837207842735</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.346770385988993</v>
+        <v>1.322795250504727</v>
       </c>
       <c r="H21" t="n">
-        <v>13.00696662257791</v>
+        <v>12.77541728776934</v>
       </c>
       <c r="I21" t="n">
-        <v>46.36906811409472</v>
+        <v>45.54360840553555</v>
       </c>
       <c r="J21" t="n">
-        <v>127.2402670376706</v>
+        <v>124.9751425049225</v>
       </c>
       <c r="K21" t="n">
-        <v>217.4738828989331</v>
+        <v>213.6024242887391</v>
       </c>
       <c r="L21" t="n">
-        <v>292.420473501689</v>
+        <v>287.2148196326162</v>
       </c>
       <c r="M21" t="n">
-        <v>341.2408999937899</v>
+        <v>335.1661474634125</v>
       </c>
       <c r="N21" t="n">
-        <v>350.2725312226373</v>
+        <v>344.036998068771</v>
       </c>
       <c r="O21" t="n">
-        <v>320.4309347751969</v>
+        <v>314.7266401496926</v>
       </c>
       <c r="P21" t="n">
-        <v>257.1740748473192</v>
+        <v>252.5958755108543</v>
       </c>
       <c r="Q21" t="n">
-        <v>171.9140583939634</v>
+        <v>168.8536533802174</v>
       </c>
       <c r="R21" t="n">
-        <v>83.61790168447452</v>
+        <v>82.12934020238998</v>
       </c>
       <c r="S21" t="n">
-        <v>25.01566923097974</v>
+        <v>24.5703416047698</v>
       </c>
       <c r="T21" t="n">
-        <v>5.428429757560894</v>
+        <v>5.331793136902822</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08860331486769693</v>
+        <v>0.08702600332267942</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.129087050663766</v>
+        <v>1.108987102450756</v>
       </c>
       <c r="H22" t="n">
-        <v>10.03861032317422</v>
+        <v>9.859903510880363</v>
       </c>
       <c r="I22" t="n">
-        <v>33.95472694177944</v>
+        <v>33.35026668097365</v>
       </c>
       <c r="J22" t="n">
-        <v>79.82645448192824</v>
+        <v>78.40538814326842</v>
       </c>
       <c r="K22" t="n">
-        <v>131.1793864316629</v>
+        <v>128.844137902915</v>
       </c>
       <c r="L22" t="n">
-        <v>167.8644511505021</v>
+        <v>164.8761370316333</v>
       </c>
       <c r="M22" t="n">
-        <v>176.9895274054119</v>
+        <v>173.8387691596216</v>
       </c>
       <c r="N22" t="n">
-        <v>172.7811120347562</v>
+        <v>169.7052717777599</v>
       </c>
       <c r="O22" t="n">
-        <v>159.5913223974567</v>
+        <v>156.7502860809487</v>
       </c>
       <c r="P22" t="n">
-        <v>136.5579465639158</v>
+        <v>134.1269491909532</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.54564385149044</v>
+        <v>92.86254727885374</v>
       </c>
       <c r="R22" t="n">
-        <v>50.76785956893622</v>
+        <v>49.86409280655851</v>
       </c>
       <c r="S22" t="n">
-        <v>19.67690796474944</v>
+        <v>19.32662068543726</v>
       </c>
       <c r="T22" t="n">
-        <v>4.824281034654271</v>
+        <v>4.738399437744137</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06158656639984184</v>
+        <v>0.06049020558822311</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34386,7 +34386,7 @@
         <v>578.253840119091</v>
       </c>
       <c r="P44" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q44" t="n">
         <v>370.6176784928399</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>17.98868783787918</v>
+        <v>37.27450692721135</v>
       </c>
       <c r="M5" t="n">
-        <v>52.00521202033443</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="N5" t="n">
-        <v>52.00521202033443</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O5" t="n">
-        <v>40.83238489483122</v>
+        <v>61.42357068186735</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>17.57410067531529</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.087515127782297</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>48.25274390827272</v>
+        <v>62.45040280136672</v>
       </c>
       <c r="M6" t="n">
-        <v>52.00521202033443</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="N6" t="n">
-        <v>52.00521202033443</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O6" t="n">
-        <v>22.25270328898455</v>
+        <v>38.70753248216018</v>
       </c>
       <c r="P6" t="n">
-        <v>30.31624102793901</v>
+        <v>42.80260953389856</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>83.80515100391688</v>
       </c>
       <c r="M9" t="n">
-        <v>57.82896157694125</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="N9" t="n">
         <v>112.1126601249236</v>
@@ -35269,7 +35269,7 @@
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>7.299701355426831</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>32.59031204865229</v>
+        <v>28.78717137224186</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0954581253486</v>
+        <v>94.39553611392637</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4517737775671</v>
+        <v>154.3805165008162</v>
       </c>
       <c r="M11" t="n">
-        <v>211.6355375055441</v>
+        <v>203.7674012997472</v>
       </c>
       <c r="N11" t="n">
-        <v>219.7204342643979</v>
+        <v>211.724983388908</v>
       </c>
       <c r="O11" t="n">
-        <v>194.0058146818856</v>
+        <v>186.4559371444545</v>
       </c>
       <c r="P11" t="n">
-        <v>130.729978530707</v>
+        <v>124.2863327250997</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.51342949638175</v>
+        <v>44.67451984858465</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4026403710038977</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>79.63244392457409</v>
+        <v>75.76098531438015</v>
       </c>
       <c r="L12" t="n">
-        <v>153.8660937218148</v>
+        <v>148.6604398527421</v>
       </c>
       <c r="M12" t="n">
-        <v>199.1068660717715</v>
+        <v>193.0321135413942</v>
       </c>
       <c r="N12" t="n">
-        <v>218.9308191393038</v>
+        <v>212.6952859854377</v>
       </c>
       <c r="O12" t="n">
-        <v>177.8346903307524</v>
+        <v>172.1303957052481</v>
       </c>
       <c r="P12" t="n">
-        <v>123.1996674329889</v>
+        <v>118.6214680965241</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.93228430794184</v>
+        <v>28.87187929419588</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.16612826112754</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>32.97977486926376</v>
+        <v>29.99146075039499</v>
       </c>
       <c r="M13" t="n">
-        <v>38.06374345780682</v>
+        <v>34.91298521201657</v>
       </c>
       <c r="N13" t="n">
-        <v>45.09556756952298</v>
+        <v>42.01972731252667</v>
       </c>
       <c r="O13" t="n">
-        <v>21.13478394561389</v>
+        <v>18.29374762910589</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>32.59031204865232</v>
+        <v>28.78717137224189</v>
       </c>
       <c r="K14" t="n">
-        <v>100.0954581253486</v>
+        <v>94.39553611392643</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4517737775672</v>
+        <v>154.3805165008162</v>
       </c>
       <c r="M14" t="n">
-        <v>211.6355375055442</v>
+        <v>203.7674012997473</v>
       </c>
       <c r="N14" t="n">
-        <v>219.720434264398</v>
+        <v>211.7249833889081</v>
       </c>
       <c r="O14" t="n">
-        <v>194.0058146818857</v>
+        <v>186.4559371444545</v>
       </c>
       <c r="P14" t="n">
-        <v>130.7299785307071</v>
+        <v>124.2863327250997</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.5134294963818</v>
+        <v>44.67451984858471</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4026403710039261</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>79.63244392457415</v>
+        <v>75.76098531438018</v>
       </c>
       <c r="L15" t="n">
-        <v>153.8660937218148</v>
+        <v>148.6604398527421</v>
       </c>
       <c r="M15" t="n">
-        <v>199.1068660717716</v>
+        <v>193.0321135413942</v>
       </c>
       <c r="N15" t="n">
-        <v>218.930819139304</v>
+        <v>212.6952859854378</v>
       </c>
       <c r="O15" t="n">
-        <v>177.8346903307525</v>
+        <v>172.1303957052482</v>
       </c>
       <c r="P15" t="n">
-        <v>123.199667432989</v>
+        <v>118.6214680965242</v>
       </c>
       <c r="Q15" t="n">
-        <v>31.93228430794187</v>
+        <v>28.87187929419591</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.166128261127568</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>32.97977486926379</v>
+        <v>29.99146075039505</v>
       </c>
       <c r="M16" t="n">
-        <v>38.06374345780688</v>
+        <v>34.91298521201659</v>
       </c>
       <c r="N16" t="n">
-        <v>45.09556756952301</v>
+        <v>42.0197273125267</v>
       </c>
       <c r="O16" t="n">
-        <v>21.13478394561392</v>
+        <v>18.29374762910592</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>32.59031204865232</v>
+        <v>28.78717137224186</v>
       </c>
       <c r="K17" t="n">
-        <v>100.0954581253486</v>
+        <v>94.39553611392637</v>
       </c>
       <c r="L17" t="n">
-        <v>161.4517737775672</v>
+        <v>154.3805165008162</v>
       </c>
       <c r="M17" t="n">
-        <v>211.6355375055442</v>
+        <v>203.7674012997472</v>
       </c>
       <c r="N17" t="n">
-        <v>219.720434264398</v>
+        <v>211.724983388908</v>
       </c>
       <c r="O17" t="n">
-        <v>194.0058146818857</v>
+        <v>186.4559371444545</v>
       </c>
       <c r="P17" t="n">
-        <v>130.7299785307071</v>
+        <v>124.2863327250997</v>
       </c>
       <c r="Q17" t="n">
-        <v>49.5134294963818</v>
+        <v>44.67451984858465</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4026403710039261</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>79.63244392457415</v>
+        <v>75.76098531438015</v>
       </c>
       <c r="L18" t="n">
-        <v>153.8660937218148</v>
+        <v>148.6604398527421</v>
       </c>
       <c r="M18" t="n">
-        <v>199.1068660717716</v>
+        <v>193.0321135413942</v>
       </c>
       <c r="N18" t="n">
-        <v>218.930819139304</v>
+        <v>212.6952859854377</v>
       </c>
       <c r="O18" t="n">
-        <v>177.8346903307525</v>
+        <v>172.1303957052481</v>
       </c>
       <c r="P18" t="n">
-        <v>123.199667432989</v>
+        <v>118.6214680965241</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.93228430794187</v>
+        <v>28.87187929419588</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.166128261127568</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>32.97977486926379</v>
+        <v>29.99146075039499</v>
       </c>
       <c r="M19" t="n">
-        <v>38.06374345780688</v>
+        <v>34.91298521201657</v>
       </c>
       <c r="N19" t="n">
-        <v>45.09556756952301</v>
+        <v>42.01972731252667</v>
       </c>
       <c r="O19" t="n">
-        <v>21.13478394561392</v>
+        <v>18.29374762910589</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>32.59031204865232</v>
+        <v>28.78717137224186</v>
       </c>
       <c r="K20" t="n">
-        <v>100.0954581253486</v>
+        <v>94.39553611392637</v>
       </c>
       <c r="L20" t="n">
-        <v>161.4517737775672</v>
+        <v>154.3805165008162</v>
       </c>
       <c r="M20" t="n">
-        <v>211.6355375055442</v>
+        <v>203.7674012997472</v>
       </c>
       <c r="N20" t="n">
-        <v>219.720434264398</v>
+        <v>211.724983388908</v>
       </c>
       <c r="O20" t="n">
-        <v>194.0058146818857</v>
+        <v>186.4559371444545</v>
       </c>
       <c r="P20" t="n">
-        <v>130.7299785307071</v>
+        <v>124.2863327250997</v>
       </c>
       <c r="Q20" t="n">
-        <v>49.5134294963818</v>
+        <v>44.67451984858465</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4026403710039261</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>79.63244392457415</v>
+        <v>75.76098531438015</v>
       </c>
       <c r="L21" t="n">
-        <v>153.8660937218148</v>
+        <v>148.6604398527421</v>
       </c>
       <c r="M21" t="n">
-        <v>199.1068660717716</v>
+        <v>193.0321135413942</v>
       </c>
       <c r="N21" t="n">
-        <v>218.930819139304</v>
+        <v>212.6952859854377</v>
       </c>
       <c r="O21" t="n">
-        <v>177.8346903307525</v>
+        <v>172.1303957052481</v>
       </c>
       <c r="P21" t="n">
-        <v>123.199667432989</v>
+        <v>118.6214680965241</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.93228430794187</v>
+        <v>28.87187929419588</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.166128261127568</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>32.97977486926379</v>
+        <v>29.99146075039499</v>
       </c>
       <c r="M22" t="n">
-        <v>38.06374345780688</v>
+        <v>34.91298521201657</v>
       </c>
       <c r="N22" t="n">
-        <v>45.09556756952301</v>
+        <v>42.01972731252667</v>
       </c>
       <c r="O22" t="n">
-        <v>21.13478394561392</v>
+        <v>18.29374762910589</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>348.1556286974043</v>
       </c>
       <c r="P44" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q44" t="n">
         <v>148.3119886183904</v>
